--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1927035.746125595</v>
+        <v>1926308.477531669</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.14296736</v>
+        <v>1734214.142967362</v>
       </c>
     </row>
     <row r="8">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>186.0388912916471</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.102433649969</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194187</v>
+        <v>33.05701720539835</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977252</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772079</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478421</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.4130322951204</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757457</v>
+        <v>23.70524722757469</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>29.88056256602309</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142346101</v>
       </c>
       <c r="E12" t="n">
-        <v>14.81714403310818</v>
+        <v>14.81714403310829</v>
       </c>
       <c r="F12" t="n">
-        <v>2.241275971091113</v>
+        <v>2.241275971091227</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0715778366251</v>
+        <v>31.9868102095556</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>23.80408096185291</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0686223740667</v>
+        <v>56.24068595177403</v>
       </c>
       <c r="U12" t="n">
-        <v>83.09555491351195</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>108.8670467386268</v>
+        <v>108.867046738627</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.5979281502357</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964453</v>
+        <v>37.00404375964465</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633518</v>
       </c>
       <c r="D13" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919704</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276519</v>
       </c>
       <c r="F13" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638593</v>
       </c>
       <c r="G13" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979082</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646469</v>
+        <v>17.3722439864648</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243165</v>
+        <v>5.766413901243278</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422051</v>
+        <v>24.21442947422062</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057569</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874896</v>
       </c>
       <c r="U13" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W13" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674439</v>
+        <v>82.8817189667445</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980202</v>
+        <v>75.75671692980214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411878</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983902</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>47.51606863936235</v>
+        <v>260.3314466171994</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977252</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385969</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>54.61031803772091</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571331</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478421</v>
+        <v>184.9243220478423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4130322951204</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757457</v>
+        <v>23.70524722757469</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>29.88056256602309</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142346101</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81714403310818</v>
+        <v>14.81714403310829</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>2.241275971091227</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.27374157744546</v>
+        <v>31.98681020955563</v>
       </c>
       <c r="S15" t="n">
-        <v>23.80408096185291</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T15" t="n">
-        <v>56.24068595177392</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U15" t="n">
-        <v>127.8216039989545</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V15" t="n">
-        <v>89.9726507271325</v>
+        <v>89.97265072713262</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118471</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501159</v>
+        <v>62.85475935501171</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964453</v>
+        <v>37.00404375964465</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633518</v>
       </c>
       <c r="D16" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919704</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276519</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638593</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979082</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646469</v>
+        <v>17.3722439864648</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243165</v>
+        <v>5.766413901243278</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422051</v>
+        <v>24.21442947422062</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057569</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874896</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W16" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674439</v>
+        <v>82.8817189667445</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980202</v>
+        <v>75.75671692980214</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129664</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>116.8248210371324</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I18" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>166.6320173841457</v>
@@ -1980,10 +1980,10 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>145.1085717735884</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.21677510385869</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.066084398333076</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2160,16 +2160,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>55.89095089545333</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V21" t="n">
-        <v>104.7641033545577</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926924762</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>42.93737347766317</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
-        <v>164.0625168654785</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6.066084398333076</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>35.00160115391601</v>
       </c>
       <c r="V25" t="n">
-        <v>225.4833884060287</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W25" t="n">
         <v>35.21800566836387</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.0407240954471</v>
+        <v>233.040724095447</v>
       </c>
       <c r="C26" t="n">
-        <v>215.5797742029741</v>
+        <v>215.579774202974</v>
       </c>
       <c r="D26" t="n">
-        <v>204.9899240526495</v>
+        <v>204.9899240526494</v>
       </c>
       <c r="E26" t="n">
         <v>232.2372525042283</v>
       </c>
       <c r="F26" t="n">
-        <v>257.182928173678</v>
+        <v>257.1829281736779</v>
       </c>
       <c r="G26" t="n">
-        <v>265.1013669519845</v>
+        <v>265.1013669519844</v>
       </c>
       <c r="H26" t="n">
-        <v>184.5765385614903</v>
+        <v>184.5765385614902</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811897</v>
+        <v>41.18834840811894</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.74513689198005</v>
+        <v>47.74513689198002</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997255</v>
       </c>
       <c r="U26" t="n">
         <v>101.6118751001936</v>
@@ -2637,10 +2637,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>133.1968235054287</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2649,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93889981611217</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T27" t="n">
-        <v>49.37550480603318</v>
+        <v>49.37550480603316</v>
       </c>
       <c r="U27" t="n">
-        <v>76.23037376777121</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>102.0018655928861</v>
       </c>
       <c r="X27" t="n">
-        <v>56.07986763544397</v>
+        <v>56.07986763544395</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>73.73914808591442</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390377</v>
       </c>
       <c r="C28" t="n">
-        <v>17.55370353059433</v>
+        <v>17.5537035305943</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699404994</v>
       </c>
       <c r="H28" t="n">
-        <v>10.50706284072395</v>
+        <v>10.50706284072392</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.34924832847977</v>
+        <v>17.34924832847975</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35032724483484</v>
+        <v>70.35032724483482</v>
       </c>
       <c r="T28" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300809</v>
       </c>
       <c r="U28" t="n">
-        <v>136.6134762541097</v>
+        <v>136.6134762541096</v>
       </c>
       <c r="V28" t="n">
         <v>102.4445257557945</v>
@@ -2776,10 +2776,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X28" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100362</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.89153578406129</v>
+        <v>68.89153578406126</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I29" t="n">
-        <v>41.18834840811897</v>
+        <v>41.18834840811903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.74513689198006</v>
+        <v>47.74513689198012</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997259</v>
+        <v>71.17785450997265</v>
       </c>
       <c r="U29" t="n">
-        <v>101.6118751001936</v>
+        <v>101.6118751001937</v>
       </c>
       <c r="V29" t="n">
-        <v>178.0591409021014</v>
+        <v>178.0591409021015</v>
       </c>
       <c r="W29" t="n">
-        <v>199.5478511493795</v>
+        <v>199.5478511493796</v>
       </c>
       <c r="X29" t="n">
-        <v>220.0379831104355</v>
+        <v>220.0379831104356</v>
       </c>
       <c r="Y29" t="n">
         <v>236.5448210880201</v>
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.84006608183384</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.951962887367443</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93889981611217</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T30" t="n">
-        <v>176.8684174274894</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U30" t="n">
-        <v>76.23037376777121</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>83.10746958139183</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>112.879478291485</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.98957820927086</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390385</v>
       </c>
       <c r="C31" t="n">
-        <v>17.55370353059433</v>
+        <v>17.55370353059439</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699405003</v>
       </c>
       <c r="H31" t="n">
-        <v>10.50706284072395</v>
+        <v>10.50706284072401</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.34924832847977</v>
+        <v>17.34924832847983</v>
       </c>
       <c r="S31" t="n">
-        <v>70.35032724483484</v>
+        <v>70.3503272448349</v>
       </c>
       <c r="T31" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300817</v>
       </c>
       <c r="U31" t="n">
         <v>136.6134762541097</v>
       </c>
       <c r="V31" t="n">
-        <v>102.4445257557945</v>
+        <v>102.4445257557946</v>
       </c>
       <c r="W31" t="n">
-        <v>136.8298807685575</v>
+        <v>136.8298807685576</v>
       </c>
       <c r="X31" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100371</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.89153578406129</v>
+        <v>68.89153578406135</v>
       </c>
     </row>
     <row r="32">
@@ -3111,7 +3111,7 @@
         <v>23.0153814202823</v>
       </c>
       <c r="D33" t="n">
-        <v>46.20394489606466</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H33" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I33" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93889981611223</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T33" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9234913358047</v>
+        <v>131.815926363527</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>55.98957820927092</v>
       </c>
     </row>
     <row r="34">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.9806268148776</v>
+        <v>145.9806268148779</v>
       </c>
       <c r="C35" t="n">
-        <v>128.5196769224046</v>
+        <v>128.5196769224049</v>
       </c>
       <c r="D35" t="n">
-        <v>117.92982677208</v>
+        <v>117.9298267720803</v>
       </c>
       <c r="E35" t="n">
-        <v>145.1771552236588</v>
+        <v>145.1771552236591</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1228308931085</v>
+        <v>170.1228308931088</v>
       </c>
       <c r="G35" t="n">
-        <v>178.041269671415</v>
+        <v>178.0412696714152</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092087</v>
+        <v>97.51644128092107</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.55177781962419</v>
+        <v>14.55177781962444</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153197</v>
+        <v>90.99904362153222</v>
       </c>
       <c r="W35" t="n">
-        <v>112.4877538688101</v>
+        <v>112.4877538688103</v>
       </c>
       <c r="X35" t="n">
-        <v>132.9778858298661</v>
+        <v>132.9778858298664</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.4847238074506</v>
+        <v>149.4847238074509</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>157.96734467305</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>127.9013844168848</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.07142543885089</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>113.9239788527033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.55337897354021</v>
+        <v>230.5487832650949</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522506</v>
+        <v>15.38442847522532</v>
       </c>
       <c r="W37" t="n">
-        <v>49.76978348798806</v>
+        <v>49.76978348798832</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.9806268148776</v>
+        <v>145.9806268148779</v>
       </c>
       <c r="C38" t="n">
-        <v>128.5196769224046</v>
+        <v>128.5196769224049</v>
       </c>
       <c r="D38" t="n">
-        <v>117.92982677208</v>
+        <v>117.9298267720803</v>
       </c>
       <c r="E38" t="n">
-        <v>145.1771552236588</v>
+        <v>145.1771552236591</v>
       </c>
       <c r="F38" t="n">
-        <v>170.1228308931085</v>
+        <v>170.1228308931088</v>
       </c>
       <c r="G38" t="n">
-        <v>178.041269671415</v>
+        <v>178.0412696714153</v>
       </c>
       <c r="H38" t="n">
-        <v>97.51644128092087</v>
+        <v>97.51644128092107</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.55177781962419</v>
+        <v>14.55177781962445</v>
       </c>
       <c r="V38" t="n">
-        <v>90.99904362153197</v>
+        <v>90.99904362153222</v>
       </c>
       <c r="W38" t="n">
-        <v>112.4877538688101</v>
+        <v>112.4877538688103</v>
       </c>
       <c r="X38" t="n">
-        <v>132.9778858298661</v>
+        <v>132.9778858298664</v>
       </c>
       <c r="Y38" t="n">
-        <v>149.4847238074506</v>
+        <v>149.4847238074509</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.03380954572837</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T39" t="n">
         <v>199.0686223740667</v>
@@ -3639,13 +3639,13 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>120.7186638528309</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>92.14415815625564</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.163424109616847</v>
+        <v>180.9954042915545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>49.55337897354021</v>
+        <v>49.55337897354046</v>
       </c>
       <c r="V40" t="n">
-        <v>15.38442847522506</v>
+        <v>15.38442847522532</v>
       </c>
       <c r="W40" t="n">
-        <v>49.76978348798806</v>
+        <v>49.76978348798832</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4019196930014</v>
+        <v>144.4019196930015</v>
       </c>
       <c r="D41" t="n">
         <v>133.8120695426769</v>
@@ -3749,10 +3749,10 @@
         <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
-        <v>186.0050736637053</v>
+        <v>186.0050736637054</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9235124420118</v>
+        <v>193.9235124420119</v>
       </c>
       <c r="H41" t="n">
         <v>113.3986840515177</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022102</v>
+        <v>30.43402059022105</v>
       </c>
       <c r="V41" t="n">
         <v>106.8812863921288</v>
@@ -3803,7 +3803,7 @@
         <v>128.3699966394069</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8601286004629</v>
+        <v>148.860128600463</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3669665780475</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>87.61678464709757</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.03380954572837</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9234913358047</v>
+        <v>5.05251925779864</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>30.8240110829135</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>141.6608180479871</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>128.5099926687326</v>
+        <v>6.100500493035543</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43562174413704</v>
+        <v>187.8451139198351</v>
       </c>
       <c r="V43" t="n">
-        <v>31.2666712458219</v>
+        <v>31.26667124582193</v>
       </c>
       <c r="W43" t="n">
-        <v>65.6520262585849</v>
+        <v>65.65202625858493</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031048</v>
+        <v>4.838683311031076</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8628695854745</v>
+        <v>161.8628695854766</v>
       </c>
       <c r="C44" t="n">
         <v>144.4019196930014</v>
       </c>
       <c r="D44" t="n">
-        <v>133.8120695426769</v>
+        <v>133.8120695426768</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0593979942557</v>
+        <v>161.0593979942556</v>
       </c>
       <c r="F44" t="n">
         <v>186.0050736637053</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9235124420118</v>
+        <v>193.9235124420117</v>
       </c>
       <c r="H44" t="n">
-        <v>113.3986840515177</v>
+        <v>113.3986840515176</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.43402059022102</v>
+        <v>30.43402059022096</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8812863921291</v>
+        <v>106.8812863921287</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3699966394069</v>
+        <v>128.3699966394068</v>
       </c>
       <c r="X44" t="n">
         <v>148.8601286004629</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3669665780475</v>
+        <v>165.3669665780474</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.469307614813042</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9234913358047</v>
+        <v>5.052519257798555</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>30.8240110829135</v>
+        <v>250.1789715590172</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.33806673684557</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.07142543885097</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.100500493035523</v>
+        <v>6.100500493035458</v>
       </c>
       <c r="U46" t="n">
-        <v>65.43562174413704</v>
+        <v>187.8451139198354</v>
       </c>
       <c r="V46" t="n">
-        <v>31.2666712458219</v>
+        <v>31.26667124582184</v>
       </c>
       <c r="W46" t="n">
-        <v>65.6520262585849</v>
+        <v>65.65202625858484</v>
       </c>
       <c r="X46" t="n">
-        <v>4.838683311031048</v>
+        <v>4.838683311030991</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>809.9341401974602</v>
+        <v>559.7840690709202</v>
       </c>
       <c r="C11" t="n">
-        <v>809.9341401974602</v>
+        <v>335.0921949813093</v>
       </c>
       <c r="D11" t="n">
-        <v>809.9341401974602</v>
+        <v>335.0921949813093</v>
       </c>
       <c r="E11" t="n">
-        <v>568.4165304500168</v>
+        <v>335.0921949813093</v>
       </c>
       <c r="F11" t="n">
-        <v>301.70126851121</v>
+        <v>301.7012685112099</v>
       </c>
       <c r="G11" t="n">
         <v>26.98758356401273</v>
@@ -5048,10 +5048,10 @@
         <v>484.3638521064407</v>
       </c>
       <c r="M11" t="n">
-        <v>789.6918103109183</v>
+        <v>613.3066246185003</v>
       </c>
       <c r="N11" t="n">
-        <v>1085.328296543884</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O11" t="n">
         <v>1142.916623706846</v>
@@ -5066,25 +5066,25 @@
         <v>1349.379178200636</v>
       </c>
       <c r="S11" t="n">
-        <v>1294.217240788797</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T11" t="n">
-        <v>1294.217240788797</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U11" t="n">
-        <v>1184.644456701995</v>
+        <v>1239.806394113834</v>
       </c>
       <c r="V11" t="n">
-        <v>997.8522122092249</v>
+        <v>1239.806394113834</v>
       </c>
       <c r="W11" t="n">
-        <v>997.8522122092249</v>
+        <v>1031.308381694521</v>
       </c>
       <c r="X11" t="n">
-        <v>997.8522122092249</v>
+        <v>802.1132662842415</v>
       </c>
       <c r="Y11" t="n">
-        <v>997.8522122092249</v>
+        <v>802.1132662842415</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.7912461614735</v>
+        <v>111.3743733843403</v>
       </c>
       <c r="C12" t="n">
-        <v>187.3382168803464</v>
+        <v>81.19198695401397</v>
       </c>
       <c r="D12" t="n">
-        <v>182.674450069896</v>
+        <v>76.52822014356336</v>
       </c>
       <c r="E12" t="n">
-        <v>167.7076379152412</v>
+        <v>61.56140798890852</v>
       </c>
       <c r="F12" t="n">
-        <v>165.443722792927</v>
+        <v>59.29749286659415</v>
       </c>
       <c r="G12" t="n">
         <v>26.98758356401273</v>
@@ -5118,25 +5118,25 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401273</v>
+        <v>51.6838379038226</v>
       </c>
       <c r="K12" t="n">
-        <v>26.98758356401273</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="L12" t="n">
-        <v>315.4056578489915</v>
+        <v>508.9325875318635</v>
       </c>
       <c r="M12" t="n">
-        <v>649.3770044536491</v>
+        <v>842.903934136521</v>
       </c>
       <c r="N12" t="n">
-        <v>983.3483510583067</v>
+        <v>842.903934136521</v>
       </c>
       <c r="O12" t="n">
-        <v>1115.326501215036</v>
+        <v>1155.71161893449</v>
       </c>
       <c r="P12" t="n">
-        <v>1349.379178200636</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q12" t="n">
         <v>1349.379178200636</v>
@@ -5145,25 +5145,25 @@
         <v>1349.379178200636</v>
       </c>
       <c r="S12" t="n">
-        <v>1325.334651976543</v>
+        <v>1181.064009125742</v>
       </c>
       <c r="T12" t="n">
         <v>1124.255235437081</v>
       </c>
       <c r="U12" t="n">
-        <v>1040.320331484039</v>
+        <v>896.049688633238</v>
       </c>
       <c r="V12" t="n">
-        <v>805.1682232522962</v>
+        <v>660.8975804014954</v>
       </c>
       <c r="W12" t="n">
-        <v>695.2015093748954</v>
+        <v>550.9308665240944</v>
       </c>
       <c r="X12" t="n">
-        <v>487.3500091693626</v>
+        <v>343.0793663185616</v>
       </c>
       <c r="Y12" t="n">
-        <v>385.7359403307407</v>
+        <v>135.3190675536077</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000419</v>
       </c>
       <c r="C13" t="n">
-        <v>87.654644622935</v>
+        <v>87.65464462293568</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140005</v>
+        <v>81.80864806140062</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980772</v>
+        <v>78.16619732980817</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269814</v>
+        <v>75.54689268269848</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876814</v>
+        <v>50.35996526876837</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031895</v>
+        <v>32.81224407031907</v>
       </c>
       <c r="I13" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927219</v>
+        <v>91.91899215927208</v>
       </c>
       <c r="K13" t="n">
-        <v>237.4946635888038</v>
+        <v>104.1633170308712</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3649588358102</v>
+        <v>165.0336122778776</v>
       </c>
       <c r="M13" t="n">
-        <v>514.3329306811943</v>
+        <v>381.0015841232616</v>
       </c>
       <c r="N13" t="n">
-        <v>600.6311045332329</v>
+        <v>600.631104533235</v>
       </c>
       <c r="O13" t="n">
-        <v>798.2724067525892</v>
+        <v>656.8727496945213</v>
       </c>
       <c r="P13" t="n">
-        <v>822.8761680036254</v>
+        <v>822.8761680036273</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772348</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063048</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855213</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281991</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606733</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055858</v>
+        <v>455.085378205587</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194259</v>
+        <v>309.938851019427</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722104</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.69800667948</v>
+        <v>149.698006679481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>612.2312719370814</v>
+        <v>789.354199789911</v>
       </c>
       <c r="C14" t="n">
-        <v>612.2312719370814</v>
+        <v>564.6623257003</v>
       </c>
       <c r="D14" t="n">
-        <v>398.2362161811312</v>
+        <v>564.6623257003</v>
       </c>
       <c r="E14" t="n">
-        <v>398.2362161811312</v>
+        <v>564.6623257003</v>
       </c>
       <c r="F14" t="n">
-        <v>350.2401872524823</v>
+        <v>301.7012685112099</v>
       </c>
       <c r="G14" t="n">
-        <v>75.52650230528516</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H14" t="n">
-        <v>75.52650230528516</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I14" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J14" t="n">
-        <v>57.86375137082628</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K14" t="n">
-        <v>224.8839273401039</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L14" t="n">
-        <v>307.9786664140227</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M14" t="n">
-        <v>613.3066246185003</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N14" t="n">
         <v>908.9431108514659</v>
@@ -5303,25 +5303,25 @@
         <v>1349.379178200636</v>
       </c>
       <c r="S14" t="n">
-        <v>1349.379178200636</v>
+        <v>1294.217240788797</v>
       </c>
       <c r="T14" t="n">
-        <v>1270.547829053451</v>
+        <v>1294.217240788797</v>
       </c>
       <c r="U14" t="n">
-        <v>1270.547829053451</v>
+        <v>1184.644456701995</v>
       </c>
       <c r="V14" t="n">
-        <v>1083.755584560681</v>
+        <v>997.8522122092246</v>
       </c>
       <c r="W14" t="n">
-        <v>1083.755584560681</v>
+        <v>789.354199789911</v>
       </c>
       <c r="X14" t="n">
-        <v>854.5604691504024</v>
+        <v>789.354199789911</v>
       </c>
       <c r="Y14" t="n">
-        <v>854.5604691504024</v>
+        <v>789.354199789911</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.1642269462427</v>
+        <v>79.0644640817589</v>
       </c>
       <c r="C15" t="n">
-        <v>384.7111976651157</v>
+        <v>48.88207765143255</v>
       </c>
       <c r="D15" t="n">
-        <v>380.0474308546652</v>
+        <v>44.21831084098194</v>
       </c>
       <c r="E15" t="n">
-        <v>365.0806187000104</v>
+        <v>29.2514986863271</v>
       </c>
       <c r="F15" t="n">
-        <v>218.5460607268953</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G15" t="n">
-        <v>218.5460607268953</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H15" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I15" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J15" t="n">
-        <v>51.6838379038226</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K15" t="n">
-        <v>220.5145132468848</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9325875318635</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="M15" t="n">
-        <v>802.518816417067</v>
+        <v>529.7896055117325</v>
       </c>
       <c r="N15" t="n">
-        <v>802.518816417067</v>
+        <v>863.7609521163899</v>
       </c>
       <c r="O15" t="n">
         <v>1115.326501215036</v>
@@ -5379,28 +5379,28 @@
         <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1265.264287718368</v>
+        <v>1317.069268898055</v>
       </c>
       <c r="S15" t="n">
-        <v>1241.219761494275</v>
+        <v>1148.75409982316</v>
       </c>
       <c r="T15" t="n">
-        <v>1184.410987805614</v>
+        <v>947.6746832836991</v>
       </c>
       <c r="U15" t="n">
-        <v>1055.298256493539</v>
+        <v>719.4691364798559</v>
       </c>
       <c r="V15" t="n">
-        <v>964.4167911125967</v>
+        <v>628.5876710989139</v>
       </c>
       <c r="W15" t="n">
-        <v>710.1794343843951</v>
+        <v>374.3503143707123</v>
       </c>
       <c r="X15" t="n">
-        <v>646.598577029663</v>
+        <v>166.4988141651795</v>
       </c>
       <c r="Y15" t="n">
-        <v>583.1089211155099</v>
+        <v>103.0091582510263</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000419</v>
       </c>
       <c r="C16" t="n">
-        <v>87.654644622935</v>
+        <v>87.65464462293568</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140005</v>
+        <v>81.80864806140062</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980772</v>
+        <v>78.16619732980817</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269814</v>
+        <v>75.54689268269848</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876814</v>
+        <v>50.35996526876837</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031895</v>
+        <v>32.81224407031907</v>
       </c>
       <c r="I16" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927219</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K16" t="n">
-        <v>96.095006530734</v>
+        <v>172.5632549935443</v>
       </c>
       <c r="L16" t="n">
-        <v>298.3649588358102</v>
+        <v>374.8332072986204</v>
       </c>
       <c r="M16" t="n">
-        <v>514.3329306811943</v>
+        <v>456.0005299968691</v>
       </c>
       <c r="N16" t="n">
-        <v>600.6311045332329</v>
+        <v>675.6300504068424</v>
       </c>
       <c r="O16" t="n">
-        <v>656.8727496945193</v>
+        <v>731.8716955681288</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036254</v>
+        <v>897.8751138772348</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772348</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063048</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855213</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281991</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606733</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055858</v>
+        <v>455.085378205587</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194259</v>
+        <v>309.938851019427</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722104</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.69800667948</v>
+        <v>149.698006679481</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739542</v>
+        <v>784.559839973954</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711457</v>
+        <v>669.4407499711455</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019984</v>
+        <v>565.0184783019981</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413573</v>
+        <v>433.0736526413571</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893529</v>
+        <v>275.9311747893527</v>
       </c>
       <c r="G17" t="n">
         <v>110.7902739289588</v>
@@ -5516,22 +5516,22 @@
         <v>57.86375137082628</v>
       </c>
       <c r="K17" t="n">
-        <v>92.94469899547772</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L17" t="n">
-        <v>352.4246237618145</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M17" t="n">
-        <v>657.7525819662922</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N17" t="n">
-        <v>953.3890681992577</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O17" t="n">
-        <v>1187.362581054638</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P17" t="n">
-        <v>1349.379178200636</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q17" t="n">
         <v>1349.379178200636</v>
@@ -5558,7 +5558,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004727</v>
+        <v>917.3162531004725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>514.0150283612617</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="C18" t="n">
-        <v>514.0150283612617</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="D18" t="n">
-        <v>365.0806187000104</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="E18" t="n">
-        <v>365.0806187000104</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="F18" t="n">
-        <v>218.5460607268953</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="G18" t="n">
-        <v>218.5460607268953</v>
+        <v>137.7038288625233</v>
       </c>
       <c r="H18" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I18" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J18" t="n">
-        <v>51.6838379038226</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K18" t="n">
-        <v>220.5145132468848</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L18" t="n">
-        <v>364.7872229686573</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="M18" t="n">
-        <v>698.7585695733148</v>
+        <v>802.518816417067</v>
       </c>
       <c r="N18" t="n">
-        <v>698.7585695733148</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O18" t="n">
-        <v>1011.566254371284</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356884</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q18" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R18" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S18" t="n">
-        <v>1096.949118643474</v>
+        <v>1181.064009125742</v>
       </c>
       <c r="T18" t="n">
-        <v>1096.949118643474</v>
+        <v>1181.064009125742</v>
       </c>
       <c r="U18" t="n">
-        <v>868.7435718396307</v>
+        <v>952.8584623218987</v>
       </c>
       <c r="V18" t="n">
-        <v>722.1692569168141</v>
+        <v>717.7063540901561</v>
       </c>
       <c r="W18" t="n">
-        <v>721.7753271262156</v>
+        <v>463.4689973619545</v>
       </c>
       <c r="X18" t="n">
-        <v>721.7753271262156</v>
+        <v>463.4689973619545</v>
       </c>
       <c r="Y18" t="n">
-        <v>514.0150283612617</v>
+        <v>255.7086985970005</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.9075206856571</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C19" t="n">
-        <v>253.9075206856571</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D19" t="n">
-        <v>253.9075206856571</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E19" t="n">
-        <v>105.9944271032639</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F19" t="n">
         <v>26.98758356401273</v>
@@ -5692,31 +5692,31 @@
         <v>325.6774777340214</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="R19" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="S19" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="T19" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="U19" t="n">
-        <v>290.3223250532982</v>
+        <v>284.194967075184</v>
       </c>
       <c r="V19" t="n">
-        <v>289.4812637850145</v>
+        <v>283.3539058069003</v>
       </c>
       <c r="W19" t="n">
-        <v>253.9075206856571</v>
+        <v>247.7801627075428</v>
       </c>
       <c r="X19" t="n">
-        <v>253.9075206856571</v>
+        <v>247.7801627075428</v>
       </c>
       <c r="Y19" t="n">
-        <v>253.9075206856571</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739541</v>
+        <v>784.5598399739542</v>
       </c>
       <c r="C20" t="n">
-        <v>669.4407499711456</v>
+        <v>669.4407499711458</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019984</v>
+        <v>565.0184783019986</v>
       </c>
       <c r="E20" t="n">
         <v>433.0736526413575</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893535</v>
+        <v>275.9311747893531</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
@@ -5759,7 +5759,7 @@
         <v>484.3638521064407</v>
       </c>
       <c r="M20" t="n">
-        <v>613.3066246185003</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N20" t="n">
         <v>908.9431108514659</v>
@@ -5795,7 +5795,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004727</v>
+        <v>917.3162531004729</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>736.9892673493335</v>
+        <v>83.4430895190161</v>
       </c>
       <c r="C21" t="n">
-        <v>562.5362380682066</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D21" t="n">
-        <v>413.6018284069553</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E21" t="n">
-        <v>254.3643734014998</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I21" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J21" t="n">
-        <v>51.6838379038226</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K21" t="n">
-        <v>158.965733720742</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3838080057208</v>
+        <v>315.4056578489915</v>
       </c>
       <c r="M21" t="n">
-        <v>781.3551546103783</v>
+        <v>649.3770044536491</v>
       </c>
       <c r="N21" t="n">
-        <v>1115.326501215036</v>
+        <v>983.3483510583067</v>
       </c>
       <c r="O21" t="n">
-        <v>1115.326501215036</v>
+        <v>1296.156035856276</v>
       </c>
       <c r="P21" t="n">
         <v>1349.379178200636</v>
@@ -5856,25 +5856,25 @@
         <v>1265.264287718368</v>
       </c>
       <c r="S21" t="n">
-        <v>1265.264287718368</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T21" t="n">
-        <v>1265.264287718368</v>
+        <v>895.8697021040125</v>
       </c>
       <c r="U21" t="n">
-        <v>1265.264287718368</v>
+        <v>667.6641553001693</v>
       </c>
       <c r="V21" t="n">
-        <v>1159.441961097603</v>
+        <v>667.6641553001693</v>
       </c>
       <c r="W21" t="n">
-        <v>905.2046043694015</v>
+        <v>667.2702255095709</v>
       </c>
       <c r="X21" t="n">
-        <v>905.2046043694015</v>
+        <v>459.418725304038</v>
       </c>
       <c r="Y21" t="n">
-        <v>905.2046043694015</v>
+        <v>251.6584265390841</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739553</v>
+        <v>784.5598399739545</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711467</v>
+        <v>669.440749971146</v>
       </c>
       <c r="D23" t="n">
-        <v>565.0184783019994</v>
+        <v>565.0184783019987</v>
       </c>
       <c r="E23" t="n">
-        <v>433.0736526413583</v>
+        <v>433.0736526413576</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893539</v>
+        <v>275.9311747893532</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="J23" t="n">
-        <v>57.86375137082631</v>
+        <v>57.86375137082629</v>
       </c>
       <c r="K23" t="n">
-        <v>224.8839273401039</v>
+        <v>210.5153387936849</v>
       </c>
       <c r="L23" t="n">
-        <v>484.3638521064407</v>
+        <v>469.9952635600217</v>
       </c>
       <c r="M23" t="n">
-        <v>789.6918103109183</v>
+        <v>775.3232217644993</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514671</v>
+        <v>1070.959707997465</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706847</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852846</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.15971779467</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
         <v>1053.612158138682</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004739</v>
+        <v>917.316253100473</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1470354849615</v>
+        <v>201.4406128451398</v>
       </c>
       <c r="C24" t="n">
-        <v>481.6940062038345</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="D24" t="n">
-        <v>332.7595965425833</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="E24" t="n">
-        <v>173.5221415371278</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="F24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="G24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="H24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="J24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="K24" t="n">
         <v>195.8182589070749</v>
       </c>
       <c r="L24" t="n">
-        <v>484.2363331920537</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="M24" t="n">
-        <v>677.5949077666269</v>
+        <v>529.7896055117326</v>
       </c>
       <c r="N24" t="n">
-        <v>1011.566254371285</v>
+        <v>863.7609521163902</v>
       </c>
       <c r="O24" t="n">
-        <v>1011.566254371285</v>
+        <v>1176.568636914359</v>
       </c>
       <c r="P24" t="n">
         <v>1245.618931356885</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R24" t="n">
         <v>1265.264287718369</v>
       </c>
       <c r="S24" t="n">
-        <v>1265.264287718369</v>
+        <v>1221.893203397497</v>
       </c>
       <c r="T24" t="n">
-        <v>1265.264287718369</v>
+        <v>1020.813786858036</v>
       </c>
       <c r="U24" t="n">
-        <v>1099.544573712835</v>
+        <v>1020.813786858036</v>
       </c>
       <c r="V24" t="n">
-        <v>864.3924654810928</v>
+        <v>785.661678626293</v>
       </c>
       <c r="W24" t="n">
-        <v>863.9985356904944</v>
+        <v>785.2677488356945</v>
       </c>
       <c r="X24" t="n">
-        <v>656.1470354849615</v>
+        <v>577.4162486301617</v>
       </c>
       <c r="Y24" t="n">
-        <v>656.1470354849615</v>
+        <v>369.6559498652078</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="C25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="D25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547456</v>
+        <v>31.16359793547455</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248095</v>
+        <v>92.03389318248094</v>
       </c>
       <c r="M25" t="n">
         <v>166.6022079697952</v>
@@ -6166,31 +6166,31 @@
         <v>325.6774777340214</v>
       </c>
       <c r="Q25" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="R25" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="S25" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="T25" t="n">
-        <v>325.6774777340214</v>
+        <v>319.5501197559072</v>
       </c>
       <c r="U25" t="n">
-        <v>290.3223250532982</v>
+        <v>284.194967075184</v>
       </c>
       <c r="V25" t="n">
-        <v>62.5613266633702</v>
+        <v>283.3539058069003</v>
       </c>
       <c r="W25" t="n">
-        <v>26.98758356401275</v>
+        <v>247.7801627075428</v>
       </c>
       <c r="X25" t="n">
-        <v>26.98758356401275</v>
+        <v>247.7801627075428</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401274</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>1470.43026241195</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D26" t="n">
         <v>1045.612385386068</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0293020484637</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F26" t="n">
-        <v>551.248566519496</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G26" t="n">
-        <v>283.4694079821379</v>
+        <v>283.4694079821378</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022847</v>
+        <v>97.02845994022846</v>
       </c>
       <c r="I26" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J26" t="n">
-        <v>234.496421807962</v>
+        <v>234.4964218079619</v>
       </c>
       <c r="K26" t="n">
         <v>549.7127841695927</v>
@@ -6245,16 +6245,16 @@
         <v>2547.128195336517</v>
       </c>
       <c r="Q26" t="n">
-        <v>2739.770339076662</v>
+        <v>2739.770339076663</v>
       </c>
       <c r="R26" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S26" t="n">
         <v>2722.975969437759</v>
       </c>
       <c r="T26" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U26" t="n">
         <v>2548.440889023449</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>840.9685172199136</v>
+        <v>823.0396587586582</v>
       </c>
       <c r="C27" t="n">
-        <v>666.5154879387866</v>
+        <v>648.5866294775312</v>
       </c>
       <c r="D27" t="n">
-        <v>666.5154879387866</v>
+        <v>499.65221981628</v>
       </c>
       <c r="E27" t="n">
-        <v>531.9732419737071</v>
+        <v>340.4147648108245</v>
       </c>
       <c r="F27" t="n">
-        <v>385.438684000592</v>
+        <v>193.8802068377094</v>
       </c>
       <c r="G27" t="n">
-        <v>246.9825447716778</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I27" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J27" t="n">
-        <v>80.12032194860504</v>
+        <v>80.12032194860505</v>
       </c>
       <c r="K27" t="n">
         <v>248.9509972916672</v>
       </c>
       <c r="L27" t="n">
-        <v>537.369071576646</v>
+        <v>537.3690715766461</v>
       </c>
       <c r="M27" t="n">
-        <v>925.9185821058163</v>
+        <v>925.9185821058164</v>
       </c>
       <c r="N27" t="n">
         <v>1340.458855400999</v>
@@ -6324,31 +6324,31 @@
         <v>1887.319217184568</v>
       </c>
       <c r="Q27" t="n">
-        <v>1991.07946402832</v>
+        <v>1991.079464028321</v>
       </c>
       <c r="R27" t="n">
-        <v>1906.964573546052</v>
+        <v>1906.964573546053</v>
       </c>
       <c r="S27" t="n">
-        <v>1889.854573731797</v>
+        <v>1738.649404471158</v>
       </c>
       <c r="T27" t="n">
-        <v>1839.980326452976</v>
+        <v>1688.775157192337</v>
       </c>
       <c r="U27" t="n">
-        <v>1762.979948909773</v>
+        <v>1460.569610388494</v>
       </c>
       <c r="V27" t="n">
-        <v>1527.82784067803</v>
+        <v>1225.417502156751</v>
       </c>
       <c r="W27" t="n">
-        <v>1273.590483949828</v>
+        <v>1122.385314689189</v>
       </c>
       <c r="X27" t="n">
-        <v>1216.944153004936</v>
+        <v>1065.738983744296</v>
       </c>
       <c r="Y27" t="n">
-        <v>1009.183854239982</v>
+        <v>991.2549957787262</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.79132821911189</v>
+        <v>94.56476484686208</v>
       </c>
       <c r="C28" t="n">
-        <v>80.06031455184488</v>
+        <v>76.8337511795951</v>
       </c>
       <c r="D28" t="n">
-        <v>80.06031455184488</v>
+        <v>76.8337511795951</v>
       </c>
       <c r="E28" t="n">
-        <v>80.06031455184488</v>
+        <v>80.06031455184481</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28966340149611</v>
+        <v>84.28966340149607</v>
       </c>
       <c r="G28" t="n">
-        <v>66.03726239740523</v>
+        <v>66.03726239740521</v>
       </c>
       <c r="H28" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I28" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J28" t="n">
-        <v>55.42406760879517</v>
+        <v>127.152005538338</v>
       </c>
       <c r="K28" t="n">
-        <v>59.60008198025697</v>
+        <v>279.5242063021529</v>
       </c>
       <c r="L28" t="n">
-        <v>120.4703772272634</v>
+        <v>354.073710183717</v>
       </c>
       <c r="M28" t="n">
-        <v>343.2348784069308</v>
+        <v>428.6420249710313</v>
       </c>
       <c r="N28" t="n">
-        <v>569.6609281511876</v>
+        <v>506.8718883229349</v>
       </c>
       <c r="O28" t="n">
-        <v>774.0987597048271</v>
+        <v>711.3097198765744</v>
       </c>
       <c r="P28" t="n">
-        <v>820.9355197077515</v>
+        <v>735.9134811276106</v>
       </c>
       <c r="Q28" t="n">
-        <v>820.9355197077515</v>
+        <v>817.7089563355015</v>
       </c>
       <c r="R28" t="n">
-        <v>803.4110264466608</v>
+        <v>800.1844630744108</v>
       </c>
       <c r="S28" t="n">
-        <v>732.3500898357165</v>
+        <v>729.1235264634665</v>
       </c>
       <c r="T28" t="n">
-        <v>654.2911453882335</v>
+        <v>651.0645820159837</v>
       </c>
       <c r="U28" t="n">
-        <v>516.297735030547</v>
+        <v>513.0711716582971</v>
       </c>
       <c r="V28" t="n">
-        <v>412.8184160853</v>
+        <v>409.5918527130501</v>
       </c>
       <c r="W28" t="n">
-        <v>274.6064153089793</v>
+        <v>271.3798519367294</v>
       </c>
       <c r="X28" t="n">
-        <v>197.8220336716019</v>
+        <v>194.595470299352</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.2346237887117</v>
+        <v>125.0080604164618</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.43026241195</v>
+        <v>1470.430262411952</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.67291473218</v>
       </c>
       <c r="D29" t="n">
-        <v>1045.612385386068</v>
+        <v>1045.612385386069</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484636</v>
+        <v>811.0293020484647</v>
       </c>
       <c r="F29" t="n">
-        <v>551.248566519496</v>
+        <v>551.248566519497</v>
       </c>
       <c r="G29" t="n">
         <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022847</v>
+        <v>97.02845994022854</v>
       </c>
       <c r="I29" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J29" t="n">
-        <v>234.4964218079619</v>
+        <v>234.4964218079618</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695927</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L29" t="n">
         <v>957.3888953282826</v>
@@ -6476,37 +6476,37 @@
         <v>1854.745712550432</v>
       </c>
       <c r="O29" t="n">
-        <v>2236.915411798165</v>
+        <v>2236.915411798166</v>
       </c>
       <c r="P29" t="n">
-        <v>2547.128195336517</v>
+        <v>2547.128195336518</v>
       </c>
       <c r="Q29" t="n">
-        <v>2739.770339076662</v>
+        <v>2739.770339076663</v>
       </c>
       <c r="R29" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S29" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U29" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.44088902345</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940518</v>
+        <v>2368.583170940519</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931044</v>
+        <v>2167.019684931045</v>
       </c>
       <c r="X29" t="n">
-        <v>1944.759095930604</v>
+        <v>1944.759095930605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.824933215432</v>
+        <v>1705.824933215433</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>863.3929666609009</v>
+        <v>527.5706911242919</v>
       </c>
       <c r="C30" t="n">
-        <v>688.9399373797739</v>
+        <v>353.1176618431649</v>
       </c>
       <c r="D30" t="n">
-        <v>540.0055277185227</v>
+        <v>353.1176618431649</v>
       </c>
       <c r="E30" t="n">
-        <v>531.9732419737071</v>
+        <v>193.8802068377094</v>
       </c>
       <c r="F30" t="n">
-        <v>385.438684000592</v>
+        <v>193.8802068377094</v>
       </c>
       <c r="G30" t="n">
-        <v>246.9825447716778</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J30" t="n">
-        <v>80.12032194860504</v>
+        <v>80.12032194860505</v>
       </c>
       <c r="K30" t="n">
         <v>248.9509972916672</v>
       </c>
       <c r="L30" t="n">
-        <v>537.369071576646</v>
+        <v>537.3690715766461</v>
       </c>
       <c r="M30" t="n">
-        <v>925.9185821058163</v>
+        <v>925.9185821058164</v>
       </c>
       <c r="N30" t="n">
         <v>1340.458855400999</v>
@@ -6561,31 +6561,31 @@
         <v>1887.319217184568</v>
       </c>
       <c r="Q30" t="n">
-        <v>1991.07946402832</v>
+        <v>1991.079464028321</v>
       </c>
       <c r="R30" t="n">
-        <v>1906.964573546052</v>
+        <v>1906.964573546053</v>
       </c>
       <c r="S30" t="n">
-        <v>1889.854573731797</v>
+        <v>1738.649404471158</v>
       </c>
       <c r="T30" t="n">
-        <v>1711.199606633323</v>
+        <v>1537.569987931697</v>
       </c>
       <c r="U30" t="n">
-        <v>1634.19922909012</v>
+        <v>1309.364441127854</v>
       </c>
       <c r="V30" t="n">
-        <v>1399.047120858377</v>
+        <v>1225.417502156751</v>
       </c>
       <c r="W30" t="n">
-        <v>1144.809764130176</v>
+        <v>1111.397827114847</v>
       </c>
       <c r="X30" t="n">
-        <v>936.958263924643</v>
+        <v>903.5463269093138</v>
       </c>
       <c r="Y30" t="n">
-        <v>880.403134420329</v>
+        <v>695.78602814436</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.79132821911189</v>
+        <v>94.5647648468625</v>
       </c>
       <c r="C31" t="n">
-        <v>80.06031455184488</v>
+        <v>76.83375117959544</v>
       </c>
       <c r="D31" t="n">
-        <v>80.06031455184488</v>
+        <v>76.83375117959544</v>
       </c>
       <c r="E31" t="n">
-        <v>80.06031455184488</v>
+        <v>80.06031455184507</v>
       </c>
       <c r="F31" t="n">
-        <v>84.28966340149611</v>
+        <v>84.28966340149624</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03726239740523</v>
+        <v>66.0372623974053</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I31" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J31" t="n">
-        <v>127.1520055383379</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="K31" t="n">
-        <v>148.2337919166075</v>
+        <v>59.60008198025699</v>
       </c>
       <c r="L31" t="n">
-        <v>357.300273555967</v>
+        <v>120.4703772272634</v>
       </c>
       <c r="M31" t="n">
-        <v>431.8685883432813</v>
+        <v>280.4458385786794</v>
       </c>
       <c r="N31" t="n">
-        <v>658.2946380875381</v>
+        <v>506.8718883229361</v>
       </c>
       <c r="O31" t="n">
-        <v>714.5362832488245</v>
+        <v>563.1135334842224</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1400444998607</v>
+        <v>735.9134811276118</v>
       </c>
       <c r="Q31" t="n">
-        <v>820.9355197077515</v>
+        <v>817.7089563355026</v>
       </c>
       <c r="R31" t="n">
-        <v>803.4110264466608</v>
+        <v>800.184463074412</v>
       </c>
       <c r="S31" t="n">
-        <v>732.3500898357165</v>
+        <v>729.1235264634676</v>
       </c>
       <c r="T31" t="n">
-        <v>654.2911453882335</v>
+        <v>651.0645820159846</v>
       </c>
       <c r="U31" t="n">
-        <v>516.297735030547</v>
+        <v>513.071171658298</v>
       </c>
       <c r="V31" t="n">
-        <v>412.8184160853</v>
+        <v>409.5918527130509</v>
       </c>
       <c r="W31" t="n">
-        <v>274.6064153089793</v>
+        <v>271.3798519367301</v>
       </c>
       <c r="X31" t="n">
-        <v>197.8220336716019</v>
+        <v>194.5954702993526</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.2346237887117</v>
+        <v>125.0080604164624</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C32" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484642</v>
+        <v>811.0293020484633</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194964</v>
+        <v>551.2485665194955</v>
       </c>
       <c r="G32" t="n">
-        <v>283.4694079821384</v>
+        <v>283.4694079821375</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022891</v>
+        <v>97.02845994022852</v>
       </c>
       <c r="I32" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079618</v>
+        <v>234.4964218079617</v>
       </c>
       <c r="K32" t="n">
         <v>549.7127841695926</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282826</v>
+        <v>957.3888953282825</v>
       </c>
       <c r="M32" t="n">
         <v>1410.913039925113</v>
@@ -6713,7 +6713,7 @@
         <v>1854.745712550432</v>
       </c>
       <c r="O32" t="n">
-        <v>2236.915411798166</v>
+        <v>2236.915411798165</v>
       </c>
       <c r="P32" t="n">
         <v>2547.128195336517</v>
@@ -6722,28 +6722,28 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R32" t="n">
-        <v>2771.203380439759</v>
+        <v>2771.203380439758</v>
       </c>
       <c r="S32" t="n">
-        <v>2722.975969437759</v>
+        <v>2722.975969437758</v>
       </c>
       <c r="T32" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U32" t="n">
-        <v>2548.44088902345</v>
+        <v>2548.440889023449</v>
       </c>
       <c r="V32" t="n">
-        <v>2368.58317094052</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W32" t="n">
-        <v>2167.019684931046</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X32" t="n">
-        <v>1944.759095930605</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.6730691809018</v>
+        <v>633.6163251352777</v>
       </c>
       <c r="C33" t="n">
-        <v>599.4252091604146</v>
+        <v>610.3684651147905</v>
       </c>
       <c r="D33" t="n">
-        <v>552.7545577502483</v>
+        <v>610.3684651147905</v>
       </c>
       <c r="E33" t="n">
-        <v>393.5171027447929</v>
+        <v>451.1310101093351</v>
       </c>
       <c r="F33" t="n">
-        <v>246.9825447716778</v>
+        <v>304.59645213622</v>
       </c>
       <c r="G33" t="n">
-        <v>246.9825447716778</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I33" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J33" t="n">
         <v>80.12032194860504</v>
@@ -6801,28 +6801,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R33" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S33" t="n">
-        <v>1973.969464214066</v>
+        <v>1738.649404471158</v>
       </c>
       <c r="T33" t="n">
-        <v>1772.890047674604</v>
+        <v>1537.569987931696</v>
       </c>
       <c r="U33" t="n">
-        <v>1544.684500870761</v>
+        <v>1404.422587564497</v>
       </c>
       <c r="V33" t="n">
-        <v>1309.532392639018</v>
+        <v>1169.270479332755</v>
       </c>
       <c r="W33" t="n">
-        <v>1055.295035910817</v>
+        <v>915.0331226045529</v>
       </c>
       <c r="X33" t="n">
-        <v>847.4435357052839</v>
+        <v>707.1816223990201</v>
       </c>
       <c r="Y33" t="n">
-        <v>639.6832369403301</v>
+        <v>650.626492894706</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9538089644404</v>
+        <v>93.49789674253961</v>
       </c>
       <c r="C34" t="n">
-        <v>83.22279529717335</v>
+        <v>75.76688307527255</v>
       </c>
       <c r="D34" t="n">
-        <v>84.28966340149623</v>
+        <v>76.83375117959542</v>
       </c>
       <c r="E34" t="n">
-        <v>84.28966340149623</v>
+        <v>80.06031455184505</v>
       </c>
       <c r="F34" t="n">
         <v>84.28966340149623</v>
@@ -6850,58 +6850,58 @@
         <v>66.03726239740529</v>
       </c>
       <c r="H34" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I34" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J34" t="n">
-        <v>127.1520055383379</v>
+        <v>73.36363488411172</v>
       </c>
       <c r="K34" t="n">
-        <v>131.3280199097997</v>
+        <v>77.53964925557352</v>
       </c>
       <c r="L34" t="n">
-        <v>192.1983151568061</v>
+        <v>286.606130894933</v>
       </c>
       <c r="M34" t="n">
-        <v>266.7666299441204</v>
+        <v>361.1744456822473</v>
       </c>
       <c r="N34" t="n">
-        <v>365.0647460481609</v>
+        <v>587.600495426504</v>
       </c>
       <c r="O34" t="n">
-        <v>569.5025776018003</v>
+        <v>792.0383269801434</v>
       </c>
       <c r="P34" t="n">
-        <v>742.3025252451897</v>
+        <v>816.6420882311796</v>
       </c>
       <c r="Q34" t="n">
-        <v>824.0980004530805</v>
+        <v>816.6420882311796</v>
       </c>
       <c r="R34" t="n">
-        <v>806.5735071919898</v>
+        <v>799.1175949700889</v>
       </c>
       <c r="S34" t="n">
-        <v>735.5125705810455</v>
+        <v>728.0566583591445</v>
       </c>
       <c r="T34" t="n">
-        <v>657.4536261335625</v>
+        <v>649.9977139116615</v>
       </c>
       <c r="U34" t="n">
-        <v>519.4602157758759</v>
+        <v>512.004303553975</v>
       </c>
       <c r="V34" t="n">
-        <v>415.9808968306288</v>
+        <v>408.524984608728</v>
       </c>
       <c r="W34" t="n">
-        <v>277.768896054308</v>
+        <v>270.3129838324072</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9845144169305</v>
+        <v>193.5286021950297</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.3971045340403</v>
+        <v>123.9411923121395</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.3521304873544</v>
+        <v>876.3521304873561</v>
       </c>
       <c r="C35" t="n">
-        <v>746.5342750101781</v>
+        <v>746.5342750101795</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666629</v>
+        <v>627.4132378666641</v>
       </c>
       <c r="E35" t="n">
-        <v>480.769646731654</v>
+        <v>480.7696467316549</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052818</v>
+        <v>308.9284034052824</v>
       </c>
       <c r="G35" t="n">
-        <v>129.0887370705189</v>
+        <v>129.0887370705192</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58728123120533</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J35" t="n">
-        <v>61.46344903801864</v>
+        <v>61.4634490380185</v>
       </c>
       <c r="K35" t="n">
-        <v>228.4836250072959</v>
+        <v>228.4836250072961</v>
       </c>
       <c r="L35" t="n">
-        <v>487.9635497736323</v>
+        <v>487.963549773633</v>
       </c>
       <c r="M35" t="n">
-        <v>793.2915079781094</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N35" t="n">
-        <v>1088.927994211075</v>
+        <v>1088.927994211076</v>
       </c>
       <c r="O35" t="n">
-        <v>1322.901507066454</v>
+        <v>1322.901507066456</v>
       </c>
       <c r="P35" t="n">
-        <v>1484.918104212452</v>
+        <v>1484.918104212456</v>
       </c>
       <c r="Q35" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="R35" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="S35" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="T35" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="U35" t="n">
-        <v>1514.665296085876</v>
+        <v>1514.665296085879</v>
       </c>
       <c r="V35" t="n">
-        <v>1422.747070205541</v>
+        <v>1422.747070205543</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.123076398662</v>
+        <v>1309.123076398664</v>
       </c>
       <c r="X35" t="n">
-        <v>1174.801979600817</v>
+        <v>1174.80197960082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1023.807309088241</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>474.8154334386897</v>
+        <v>270.6669681010325</v>
       </c>
       <c r="C36" t="n">
-        <v>474.8154334386897</v>
+        <v>270.6669681010325</v>
       </c>
       <c r="D36" t="n">
-        <v>474.8154334386897</v>
+        <v>270.6669681010325</v>
       </c>
       <c r="E36" t="n">
-        <v>315.5779784332342</v>
+        <v>111.429513095577</v>
       </c>
       <c r="F36" t="n">
-        <v>169.0434204601191</v>
+        <v>111.429513095577</v>
       </c>
       <c r="G36" t="n">
-        <v>30.58728123120488</v>
+        <v>111.429513095577</v>
       </c>
       <c r="H36" t="n">
-        <v>30.58728123120488</v>
+        <v>111.429513095577</v>
       </c>
       <c r="I36" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J36" t="n">
-        <v>55.28353557101461</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1142109140766</v>
+        <v>121.7082424606034</v>
       </c>
       <c r="L36" t="n">
-        <v>512.532285199055</v>
+        <v>121.7082424606034</v>
       </c>
       <c r="M36" t="n">
-        <v>891.0498904352153</v>
+        <v>500.2258476967647</v>
       </c>
       <c r="N36" t="n">
-        <v>1269.567495671376</v>
+        <v>878.7434529329259</v>
       </c>
       <c r="O36" t="n">
-        <v>1269.567495671376</v>
+        <v>1191.551137730895</v>
       </c>
       <c r="P36" t="n">
-        <v>1503.620172656976</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q36" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="R36" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="S36" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="T36" t="n">
-        <v>1529.364061560244</v>
+        <v>1328.284645020786</v>
       </c>
       <c r="U36" t="n">
-        <v>1301.158514756401</v>
+        <v>1100.079098216943</v>
       </c>
       <c r="V36" t="n">
-        <v>1066.006406524658</v>
+        <v>940.5161237997208</v>
       </c>
       <c r="W36" t="n">
-        <v>811.7690497964566</v>
+        <v>686.2787670715193</v>
       </c>
       <c r="X36" t="n">
-        <v>682.5757322036436</v>
+        <v>478.4272668659864</v>
       </c>
       <c r="Y36" t="n">
-        <v>474.8154334386897</v>
+        <v>270.6669681010325</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="C37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="D37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="E37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="F37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="G37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="H37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="I37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="K37" t="n">
-        <v>34.76329560266654</v>
+        <v>34.76329560266676</v>
       </c>
       <c r="L37" t="n">
-        <v>95.63359084967274</v>
+        <v>95.63359084967315</v>
       </c>
       <c r="M37" t="n">
-        <v>170.2019056369868</v>
+        <v>170.2019056369874</v>
       </c>
       <c r="N37" t="n">
-        <v>248.4317689888903</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6734141501764</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P37" t="n">
-        <v>329.2771754012125</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="Q37" t="n">
-        <v>261.5282608165146</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="R37" t="n">
-        <v>261.5282608165146</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="S37" t="n">
-        <v>261.5282608165146</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="T37" t="n">
-        <v>146.4535347026729</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="U37" t="n">
-        <v>96.39961654758179</v>
+        <v>96.39961654758237</v>
       </c>
       <c r="V37" t="n">
-        <v>80.8597898049302</v>
+        <v>80.85978980493053</v>
       </c>
       <c r="W37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="X37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120495</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873545</v>
+        <v>876.3521304873558</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101781</v>
+        <v>746.5342750101792</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666628</v>
+        <v>627.4132378666637</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316539</v>
+        <v>480.7696467316546</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052816</v>
+        <v>308.9284034052821</v>
       </c>
       <c r="G38" t="n">
-        <v>129.0887370705189</v>
+        <v>129.0887370705192</v>
       </c>
       <c r="H38" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="I38" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="J38" t="n">
-        <v>61.46344903801833</v>
+        <v>61.46344903801844</v>
       </c>
       <c r="K38" t="n">
-        <v>228.4836250072956</v>
+        <v>228.4836250072962</v>
       </c>
       <c r="L38" t="n">
-        <v>487.9635497736322</v>
+        <v>487.963549773633</v>
       </c>
       <c r="M38" t="n">
-        <v>793.2915079781094</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N38" t="n">
-        <v>1088.927994211075</v>
+        <v>1088.927994211076</v>
       </c>
       <c r="O38" t="n">
-        <v>1322.901507066454</v>
+        <v>1322.901507066456</v>
       </c>
       <c r="P38" t="n">
-        <v>1484.918104212452</v>
+        <v>1484.918104212455</v>
       </c>
       <c r="Q38" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="R38" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="S38" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="T38" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="U38" t="n">
-        <v>1514.665296085876</v>
+        <v>1514.665296085878</v>
       </c>
       <c r="V38" t="n">
-        <v>1422.747070205541</v>
+        <v>1422.747070205543</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.123076398662</v>
+        <v>1309.123076398664</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.801979600817</v>
+        <v>1174.801979600819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1023.807309088241</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>517.6147260284539</v>
+        <v>179.5216908924562</v>
       </c>
       <c r="C39" t="n">
-        <v>517.6147260284539</v>
+        <v>179.5216908924562</v>
       </c>
       <c r="D39" t="n">
-        <v>368.6803163672026</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="E39" t="n">
-        <v>368.6803163672026</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="F39" t="n">
-        <v>222.1457583940876</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="G39" t="n">
-        <v>222.1457583940876</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="H39" t="n">
-        <v>111.429513095577</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="I39" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="J39" t="n">
-        <v>30.58728123120488</v>
+        <v>55.2835355710148</v>
       </c>
       <c r="K39" t="n">
-        <v>199.4179565742668</v>
+        <v>224.114210914077</v>
       </c>
       <c r="L39" t="n">
-        <v>487.8360308592453</v>
+        <v>512.5322851990558</v>
       </c>
       <c r="M39" t="n">
-        <v>603.9860945405144</v>
+        <v>891.0498904352169</v>
       </c>
       <c r="N39" t="n">
-        <v>982.5036997766747</v>
+        <v>982.5036997766772</v>
       </c>
       <c r="O39" t="n">
-        <v>1295.311384574643</v>
+        <v>1295.311384574646</v>
       </c>
       <c r="P39" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="Q39" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="R39" t="n">
-        <v>1529.364061560244</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="S39" t="n">
-        <v>1529.364061560244</v>
+        <v>1361.048892485352</v>
       </c>
       <c r="T39" t="n">
-        <v>1328.284645020782</v>
+        <v>1159.969475945891</v>
       </c>
       <c r="U39" t="n">
-        <v>1100.079098216939</v>
+        <v>931.7639291420476</v>
       </c>
       <c r="V39" t="n">
-        <v>864.9269899851965</v>
+        <v>809.8258848462588</v>
       </c>
       <c r="W39" t="n">
-        <v>610.689633256995</v>
+        <v>555.5885281180571</v>
       </c>
       <c r="X39" t="n">
-        <v>517.6147260284539</v>
+        <v>347.7370279125242</v>
       </c>
       <c r="Y39" t="n">
-        <v>517.6147260284539</v>
+        <v>347.7370279125242</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="C40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="D40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="E40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="F40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="G40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="H40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="I40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="J40" t="n">
-        <v>30.58728123120488</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="K40" t="n">
-        <v>34.76329560266654</v>
+        <v>34.76329560266674</v>
       </c>
       <c r="L40" t="n">
-        <v>95.63359084967274</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M40" t="n">
-        <v>170.2019056369868</v>
+        <v>170.2019056369874</v>
       </c>
       <c r="N40" t="n">
-        <v>248.4317689888903</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O40" t="n">
-        <v>304.6734141501764</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P40" t="n">
-        <v>329.2771754012125</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="Q40" t="n">
-        <v>329.2771754012125</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="R40" t="n">
-        <v>329.2771754012125</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="S40" t="n">
-        <v>328.1019995329127</v>
+        <v>146.4535347026737</v>
       </c>
       <c r="T40" t="n">
-        <v>328.1019995329127</v>
+        <v>146.4535347026737</v>
       </c>
       <c r="U40" t="n">
-        <v>278.0480813778215</v>
+        <v>96.39961654758235</v>
       </c>
       <c r="V40" t="n">
-        <v>262.5082546351699</v>
+        <v>80.85978980493051</v>
       </c>
       <c r="W40" t="n">
-        <v>212.2357460614446</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="X40" t="n">
-        <v>212.2357460614446</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.2357460614446</v>
+        <v>30.58728123120493</v>
       </c>
     </row>
     <row r="41">
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907481</v>
+        <v>976.5369642907486</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483223</v>
+        <v>830.676439348323</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395578</v>
+        <v>695.5127327395585</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721392995</v>
+        <v>532.8264721393002</v>
       </c>
       <c r="F41" t="n">
-        <v>344.942559347678</v>
+        <v>344.9425593476785</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I41" t="n">
-        <v>64.20570928393767</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J41" t="n">
-        <v>95.08187709075098</v>
+        <v>65.39226604991624</v>
       </c>
       <c r="K41" t="n">
-        <v>262.1020530600283</v>
+        <v>232.4124420191939</v>
       </c>
       <c r="L41" t="n">
-        <v>521.5819778263647</v>
+        <v>491.8923667855307</v>
       </c>
       <c r="M41" t="n">
-        <v>826.9099360308418</v>
+        <v>797.2203249900083</v>
       </c>
       <c r="N41" t="n">
-        <v>1254.046651789237</v>
+        <v>1092.856811222974</v>
       </c>
       <c r="O41" t="n">
-        <v>1488.020164644617</v>
+        <v>1326.830324078354</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.358954807342</v>
+        <v>1579.459837479373</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.804912155133</v>
+        <v>1623.905794827165</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.063477215516</v>
+        <v>1695.063477215517</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869931</v>
+        <v>1587.102581869932</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.435918597803</v>
+        <v>1457.435918597804</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.072152334709</v>
+        <v>1307.07215233471</v>
       </c>
       <c r="Y41" t="n">
         <v>1140.034812356884</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>511.0652726080147</v>
+        <v>446.4053398593169</v>
       </c>
       <c r="C42" t="n">
-        <v>511.0652726080147</v>
+        <v>271.9523105781899</v>
       </c>
       <c r="D42" t="n">
-        <v>511.0652726080147</v>
+        <v>123.0179009169386</v>
       </c>
       <c r="E42" t="n">
-        <v>511.0652726080147</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="F42" t="n">
-        <v>364.5307146348996</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="G42" t="n">
-        <v>226.0745754059853</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="H42" t="n">
-        <v>115.3583301074748</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51609824310267</v>
+        <v>59.21235258291256</v>
       </c>
       <c r="K42" t="n">
-        <v>203.3467735861646</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L42" t="n">
-        <v>491.764847871143</v>
+        <v>516.4611022109535</v>
       </c>
       <c r="M42" t="n">
-        <v>880.314358400313</v>
+        <v>905.0106127401239</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.854631695495</v>
+        <v>1075.184303527813</v>
       </c>
       <c r="O42" t="n">
-        <v>1491.752235169533</v>
+        <v>1387.991988325782</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.804912155133</v>
+        <v>1622.044665311382</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="S42" t="n">
-        <v>1557.489743080239</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="T42" t="n">
-        <v>1356.410326540777</v>
+        <v>1524.725495615673</v>
       </c>
       <c r="U42" t="n">
-        <v>1128.204779736934</v>
+        <v>1519.621940809816</v>
       </c>
       <c r="V42" t="n">
-        <v>893.0526715051915</v>
+        <v>1284.469832578073</v>
       </c>
       <c r="W42" t="n">
-        <v>861.9173067749758</v>
+        <v>1030.232475849872</v>
       </c>
       <c r="X42" t="n">
-        <v>718.8255713729686</v>
+        <v>822.3809756443388</v>
       </c>
       <c r="Y42" t="n">
-        <v>511.0652726080147</v>
+        <v>614.620676879385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="K43" t="n">
-        <v>38.69211261456433</v>
+        <v>38.69211261456449</v>
       </c>
       <c r="L43" t="n">
-        <v>99.56240786157053</v>
+        <v>99.56240786157089</v>
       </c>
       <c r="M43" t="n">
-        <v>174.1307226488846</v>
+        <v>174.1307226488852</v>
       </c>
       <c r="N43" t="n">
-        <v>252.360586000788</v>
+        <v>252.3605860007888</v>
       </c>
       <c r="O43" t="n">
-        <v>308.6022311620742</v>
+        <v>308.6022311620751</v>
       </c>
       <c r="P43" t="n">
-        <v>333.2059924131103</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.2059924131103</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R43" t="n">
-        <v>333.2059924131103</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S43" t="n">
-        <v>333.2059924131103</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T43" t="n">
-        <v>203.39791901035</v>
+        <v>327.0438707029745</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3013313900096</v>
+        <v>137.3013313900097</v>
       </c>
       <c r="V43" t="n">
-        <v>105.7188351821087</v>
+        <v>105.7188351821088</v>
       </c>
       <c r="W43" t="n">
-        <v>39.40365714313403</v>
+        <v>39.40365714313408</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.5369642907478</v>
+        <v>976.5369642907476</v>
       </c>
       <c r="C44" t="n">
-        <v>830.6764393483222</v>
+        <v>830.676439348322</v>
       </c>
       <c r="D44" t="n">
-        <v>695.5127327395577</v>
+        <v>695.5127327395576</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8264721392994</v>
+        <v>532.8264721392993</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9425593476778</v>
+        <v>344.9425593476777</v>
       </c>
       <c r="G44" t="n">
-        <v>149.060223547666</v>
+        <v>149.0602235476659</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I44" t="n">
-        <v>64.20570928393761</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J44" t="n">
-        <v>95.08187709075078</v>
+        <v>65.39226604991624</v>
       </c>
       <c r="K44" t="n">
-        <v>262.1020530600279</v>
+        <v>232.4124420191939</v>
       </c>
       <c r="L44" t="n">
-        <v>521.581977826364</v>
+        <v>491.8923667855307</v>
       </c>
       <c r="M44" t="n">
-        <v>826.9099360308409</v>
+        <v>797.2203249900083</v>
       </c>
       <c r="N44" t="n">
-        <v>1122.546422263806</v>
+        <v>1092.856811222974</v>
       </c>
       <c r="O44" t="n">
-        <v>1356.519935119185</v>
+        <v>1519.342357661344</v>
       </c>
       <c r="P44" t="n">
-        <v>1518.536532265183</v>
+        <v>1681.358954807343</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="U44" t="n">
-        <v>1695.063477215516</v>
+        <v>1695.063477215517</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.102581869931</v>
+        <v>1587.102581869933</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.435918597803</v>
+        <v>1457.435918597805</v>
       </c>
       <c r="X44" t="n">
-        <v>1307.072152334709</v>
+        <v>1307.072152334711</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.034812356884</v>
+        <v>1140.034812356886</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>614.6206768793836</v>
+        <v>655.5971314198507</v>
       </c>
       <c r="C45" t="n">
-        <v>440.1676475982566</v>
+        <v>481.1441021387237</v>
       </c>
       <c r="D45" t="n">
-        <v>291.2332379370054</v>
+        <v>332.2096924774725</v>
       </c>
       <c r="E45" t="n">
-        <v>291.2332379370054</v>
+        <v>172.972237472017</v>
       </c>
       <c r="F45" t="n">
-        <v>291.2332379370054</v>
+        <v>172.972237472017</v>
       </c>
       <c r="G45" t="n">
-        <v>152.7770987080911</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="H45" t="n">
-        <v>42.06085340958049</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J45" t="n">
-        <v>59.21235258291232</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="K45" t="n">
-        <v>59.21235258291232</v>
+        <v>203.3467735861649</v>
       </c>
       <c r="L45" t="n">
-        <v>347.6304268678905</v>
+        <v>491.7648478711437</v>
       </c>
       <c r="M45" t="n">
-        <v>736.1799373970603</v>
+        <v>880.3143584003139</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.720210692242</v>
+        <v>1294.854631695496</v>
       </c>
       <c r="O45" t="n">
-        <v>1387.991988325781</v>
+        <v>1607.662316493465</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.044665311381</v>
+        <v>1622.044665311382</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.804912155133</v>
+        <v>1557.48974308024</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.725495615672</v>
+        <v>1356.410326540778</v>
       </c>
       <c r="U45" t="n">
-        <v>1296.519948811829</v>
+        <v>1351.306771734921</v>
       </c>
       <c r="V45" t="n">
-        <v>1061.367840580086</v>
+        <v>1116.154663503179</v>
       </c>
       <c r="W45" t="n">
-        <v>1030.23247584987</v>
+        <v>863.4486316253835</v>
       </c>
       <c r="X45" t="n">
-        <v>822.3809756443375</v>
+        <v>655.5971314198507</v>
       </c>
       <c r="Y45" t="n">
-        <v>614.6206768793836</v>
+        <v>655.5971314198507</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="C46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="D46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="E46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="F46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="G46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="H46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="I46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51609824310267</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="K46" t="n">
-        <v>38.69211261456424</v>
+        <v>38.69211261456449</v>
       </c>
       <c r="L46" t="n">
-        <v>99.56240786157034</v>
+        <v>99.56240786157089</v>
       </c>
       <c r="M46" t="n">
-        <v>174.1307226488843</v>
+        <v>174.1307226488852</v>
       </c>
       <c r="N46" t="n">
-        <v>252.3605860007876</v>
+        <v>252.3605860007888</v>
       </c>
       <c r="O46" t="n">
-        <v>308.6022311620737</v>
+        <v>308.6022311620751</v>
       </c>
       <c r="P46" t="n">
-        <v>333.2059924131097</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q46" t="n">
-        <v>265.4570778284117</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R46" t="n">
-        <v>265.4570778284117</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S46" t="n">
-        <v>265.4570778284117</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T46" t="n">
-        <v>259.2949561182749</v>
+        <v>327.0438707029745</v>
       </c>
       <c r="U46" t="n">
-        <v>193.1983684979344</v>
+        <v>137.3013313900094</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6158722900335</v>
+        <v>105.7188351821086</v>
       </c>
       <c r="W46" t="n">
-        <v>95.30069425105886</v>
+        <v>39.40365714313399</v>
       </c>
       <c r="X46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.41313535102749</v>
+        <v>34.51609824310269</v>
       </c>
     </row>
   </sheetData>
@@ -8696,13 +8696,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>271.3466792580668</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>202.6333270279797</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92920131251577</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>410.575605240391</v>
       </c>
       <c r="N12" t="n">
-        <v>397.9596201107002</v>
+        <v>60.61482556054109</v>
       </c>
       <c r="O12" t="n">
-        <v>211.2062236795176</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>172.8613902932643</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>239.4943603156848</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>290.3681184669292</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M15" t="n">
-        <v>369.7825570389222</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N15" t="n">
-        <v>60.61482556054109</v>
+        <v>397.9596201107002</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>332.0015761461002</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>190.87346474831</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>259.1800701772185</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.4200842479937</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>225.2389669567862</v>
+        <v>354.9930085563437</v>
       </c>
       <c r="M18" t="n">
         <v>410.575605240391</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,10 +9407,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>271.3466792580668</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>259.1800701772185</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K21" t="n">
-        <v>202.2947526427374</v>
+        <v>93.92920131251577</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,10 +9492,10 @@
         <v>397.9596201107002</v>
       </c>
       <c r="O21" t="n">
-        <v>77.89496089494261</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>135.8066730427254</v>
       </c>
       <c r="Q21" t="n">
         <v>105.2689575906448</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>309.631686766701</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,13 +9647,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>259.1800701772196</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>158.1455797411812</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M24" t="n">
-        <v>268.5425021796997</v>
+        <v>410.5756052403911</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107005</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O24" t="n">
-        <v>77.89496089494261</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>151.793695364104</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714837</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>185.9705762917061</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M36" t="n">
-        <v>455.5718260802932</v>
+        <v>455.5718260802938</v>
       </c>
       <c r="N36" t="n">
-        <v>442.9558409506025</v>
+        <v>442.955840950603</v>
       </c>
       <c r="O36" t="n">
-        <v>77.89496089494298</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>131.2728857757642</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1453238860556</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>190.5541073379788</v>
+        <v>455.5718260802935</v>
       </c>
       <c r="N39" t="n">
-        <v>442.9558409506025</v>
+        <v>152.9924107539354</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.268957590645</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1453238860556</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>232.5074425178026</v>
       </c>
       <c r="O42" t="n">
-        <v>276.781429050537</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.268957590645</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K45" t="n">
-        <v>93.92920131251617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,10 +11388,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>317.5634231510436</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>96.57354826853975</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.8670139495407</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.4449553487148</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983902</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>230.9910921140205</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>191.441719707231</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385969</v>
+        <v>48.0535295538598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>54.61031803772091</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571333</v>
+        <v>78.04303565571342</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.9243220478423</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4130322951202</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337608</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4449553487148</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E14" t="n">
-        <v>239.102433649969</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F14" t="n">
-        <v>216.5320406800564</v>
+        <v>3.716662702219398</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.441719707231</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.0535295538598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772079</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.04303565571342</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951202</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4100022337608</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="15">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-2.113520975709402e-12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859703.6115296691</v>
+        <v>859703.6115296693</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863619.9674451858</v>
+        <v>863619.9674451859</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>737348.7048453345</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453348</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="D2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453349</v>
       </c>
       <c r="E2" t="n">
-        <v>632736.1960485132</v>
+        <v>632736.1960485135</v>
       </c>
       <c r="F2" t="n">
-        <v>632736.1960485135</v>
+        <v>632736.1960485134</v>
       </c>
       <c r="G2" t="n">
         <v>738937.5928778548</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778568</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778546</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778539</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778547</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.66348776</v>
+        <v>316558.6634877599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86781.64499674749</v>
+        <v>86781.64499674758</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125975.7919503424</v>
+        <v>125975.7919503425</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674745</v>
+        <v>86781.64499674758</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.9186000208</v>
+        <v>76347.91860002084</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532953</v>
+        <v>32085.47662532954</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210776</v>
       </c>
       <c r="F4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210775</v>
       </c>
       <c r="G4" t="n">
         <v>396179.5052090347</v>
@@ -26445,19 +26445,19 @@
         <v>394231.1226104039</v>
       </c>
       <c r="L4" t="n">
-        <v>394231.1226104039</v>
+        <v>394231.1226104038</v>
       </c>
       <c r="M4" t="n">
-        <v>394377.3697647623</v>
+        <v>394377.3697647622</v>
       </c>
       <c r="N4" t="n">
-        <v>394377.3697647623</v>
+        <v>394377.3697647621</v>
       </c>
       <c r="O4" t="n">
-        <v>393892.8197573471</v>
+        <v>393892.8197573469</v>
       </c>
       <c r="P4" t="n">
-        <v>393892.8197573472</v>
+        <v>393892.8197573469</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35274.09422500686</v>
+        <v>35274.09422500685</v>
       </c>
       <c r="F5" t="n">
-        <v>35274.09422500686</v>
+        <v>35274.09422500685</v>
       </c>
       <c r="G5" t="n">
         <v>44393.65186654632</v>
@@ -26488,28 +26488,28 @@
         <v>44393.65186654632</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654634</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="J5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.97101278281</v>
       </c>
       <c r="K5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.9710127828</v>
       </c>
       <c r="L5" t="n">
         <v>57462.97101278279</v>
       </c>
       <c r="M5" t="n">
-        <v>45906.06868409435</v>
+        <v>45906.0686840944</v>
       </c>
       <c r="N5" t="n">
-        <v>45906.06868409435</v>
+        <v>45906.06868409438</v>
       </c>
       <c r="O5" t="n">
-        <v>47556.76534565537</v>
+        <v>47556.7653456554</v>
       </c>
       <c r="P5" t="n">
-        <v>47556.76534565535</v>
+        <v>47556.7653456554</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256696.4845729416</v>
+        <v>256692.0709950735</v>
       </c>
       <c r="C6" t="n">
-        <v>256696.4845729419</v>
+        <v>256692.0709950734</v>
       </c>
       <c r="D6" t="n">
-        <v>256696.4845729418</v>
+        <v>256692.0709950739</v>
       </c>
       <c r="E6" t="n">
-        <v>-48103.02898533134</v>
+        <v>-48398.03286541232</v>
       </c>
       <c r="F6" t="n">
-        <v>268455.6345024289</v>
+        <v>268160.6306223475</v>
       </c>
       <c r="G6" t="n">
-        <v>211582.7908055264</v>
+        <v>211582.7908055263</v>
       </c>
       <c r="H6" t="n">
-        <v>298364.4358022737</v>
+        <v>298364.4358022736</v>
       </c>
       <c r="I6" t="n">
-        <v>298364.4358022739</v>
+        <v>298364.4358022736</v>
       </c>
       <c r="J6" t="n">
         <v>161267.7073043261</v>
       </c>
       <c r="K6" t="n">
-        <v>287243.4992546694</v>
+        <v>287243.4992546702</v>
       </c>
       <c r="L6" t="n">
-        <v>200461.8542579215</v>
+        <v>200461.8542579217</v>
       </c>
       <c r="M6" t="n">
-        <v>222306.2358289771</v>
+        <v>222306.2358289777</v>
       </c>
       <c r="N6" t="n">
-        <v>298654.1544289979</v>
+        <v>298654.1544289981</v>
       </c>
       <c r="O6" t="n">
-        <v>265402.5311495219</v>
+        <v>265402.5311495228</v>
       </c>
       <c r="P6" t="n">
-        <v>297488.0077748515</v>
+        <v>297488.0077748524</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G2" t="n">
         <v>251.3049926682271</v>
@@ -26710,22 +26710,22 @@
         <v>149.6931175680335</v>
       </c>
       <c r="K2" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L2" t="n">
         <v>149.6931175680334</v>
       </c>
       <c r="M2" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="N2" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="O2" t="n">
         <v>220.8709720780061</v>
       </c>
       <c r="P2" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
     </row>
     <row r="3">
@@ -26768,16 +26768,16 @@
         <v>126.427932535388</v>
       </c>
       <c r="M3" t="n">
-        <v>126.4279325353873</v>
+        <v>126.427932535388</v>
       </c>
       <c r="N3" t="n">
-        <v>126.4279325353873</v>
+        <v>126.427932535388</v>
       </c>
       <c r="O3" t="n">
-        <v>126.4279325353873</v>
+        <v>126.427932535388</v>
       </c>
       <c r="P3" t="n">
-        <v>126.4279325353869</v>
+        <v>126.427932535388</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501594</v>
+        <v>337.3447945501592</v>
       </c>
       <c r="J4" t="n">
+        <v>692.8008451099398</v>
+      </c>
+      <c r="K4" t="n">
+        <v>692.8008451099398</v>
+      </c>
+      <c r="L4" t="n">
         <v>692.8008451099396</v>
       </c>
-      <c r="K4" t="n">
-        <v>692.8008451099396</v>
-      </c>
-      <c r="L4" t="n">
-        <v>692.8008451099397</v>
-      </c>
       <c r="M4" t="n">
-        <v>382.341015390061</v>
+        <v>382.3410153900619</v>
       </c>
       <c r="N4" t="n">
-        <v>382.3410153900609</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O4" t="n">
-        <v>431.4512280387833</v>
+        <v>431.4512280387836</v>
       </c>
       <c r="P4" t="n">
-        <v>431.4512280387833</v>
+        <v>431.4512280387836</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056949</v>
+        <v>87.06009728056924</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.3338185515023</v>
+        <v>25.33381855150245</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597802</v>
+        <v>355.4560505597806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028041</v>
+        <v>26.88496483028143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.11021264872238</v>
+        <v>49.11021264872193</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.0847676270695</v>
       </c>
       <c r="H12" t="n">
         <v>109.6090828455255</v>
@@ -28217,25 +28217,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U12" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.0847676270687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K13" t="n">
-        <v>142.8279364222928</v>
+        <v>8.149808585997327</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="N13" t="n">
-        <v>8.14980858599499</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="O13" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G15" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>51.28693136788984</v>
       </c>
       <c r="S15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>98.10188733685018</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J16" t="n">
-        <v>142.8279364222928</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="L16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="M16" t="n">
-        <v>142.8279364222928</v>
+        <v>6.665664556499422</v>
       </c>
       <c r="N16" t="n">
-        <v>8.14980858599499</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.8279364222928</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="17">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>49.7083626127349</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0715778366251</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>87.69201537583686</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -28728,10 +28728,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>67.20427291907255</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7629945620835</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.0714254388508</v>
+        <v>61.00534104051772</v>
       </c>
       <c r="R19" t="n">
         <v>167.0423658965133</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28880,16 +28880,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.8175480928624</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0715778366251</v>
@@ -28898,7 +28898,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>128.0364837948676</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0715778366251</v>
@@ -29165,13 +29165,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6320173841457</v>
+        <v>123.6946439064825</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>61.8609744703262</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.0714254388508</v>
+        <v>61.00534104051772</v>
       </c>
       <c r="R25" t="n">
         <v>167.0423658965133</v>
@@ -29253,7 +29253,7 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V25" t="n">
-        <v>26.65425491779931</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W25" t="n">
         <v>251.3049926682271</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29357,10 +29357,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>24.44825694997226</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>131.9435476913899</v>
       </c>
     </row>
     <row r="28">
@@ -29439,7 +29439,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F28" t="n">
         <v>149.6931175680335</v>
@@ -29454,28 +29454,28 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
-        <v>77.24065501293978</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>13.81738245914917</v>
       </c>
       <c r="M28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="P28" t="n">
-        <v>22.45757449685672</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.0714254388508</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="R28" t="n">
         <v>149.6931175680335</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="E29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="K29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M29" t="n">
-        <v>149.6931175680331</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="N29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="O29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.693117568034</v>
       </c>
       <c r="P29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="R29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,25 +29639,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>22.20020494657732</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>138.8155048694346</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I31" t="n">
         <v>148.5943503235359</v>
       </c>
       <c r="J31" t="n">
-        <v>149.6931175680335</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K31" t="n">
-        <v>17.07653738061384</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>86.26984501424418</v>
       </c>
       <c r="N31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="R31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="32">
@@ -29831,7 +29831,7 @@
         <v>149.6931175680334</v>
       </c>
       <c r="D33" t="n">
-        <v>101.2411206685741</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>94.10756497227771</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>149.6931175680334</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,10 +29913,10 @@
         <v>149.6931175680334</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G34" t="n">
         <v>149.6931175680334</v>
@@ -29928,28 +29928,28 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J34" t="n">
+        <v>95.36143003851205</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>149.6931175680334</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>20.27096237589585</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="O34" t="n">
         <v>149.6931175680334</v>
       </c>
       <c r="P34" t="n">
-        <v>149.6931175680334</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.6931175680334</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R34" t="n">
         <v>149.6931175680334</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="C35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="D35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="E35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="F35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="G35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="H35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="I35" t="n">
-        <v>190.8814659761526</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>117.942570736623</v>
+        <v>117.9425707366228</v>
       </c>
       <c r="S35" t="n">
         <v>197.4382544600136</v>
@@ -30040,19 +30040,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
     </row>
     <row r="36">
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H36" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I36" t="n">
-        <v>80.03380954572837</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,25 +30110,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.27374157744555</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S36" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>74.83324247637529</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>77.87160078659267</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30162,10 +30162,10 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I37" t="n">
-        <v>148.594350323536</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J37" t="n">
-        <v>77.24065501293987</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,25 +30186,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R37" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T37" t="n">
-        <v>113.0474937183383</v>
+        <v>226.9714725710416</v>
       </c>
       <c r="U37" t="n">
-        <v>236.7532148486029</v>
+        <v>55.75781055704826</v>
       </c>
       <c r="V37" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W37" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="C38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="D38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="E38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="F38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="G38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="H38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="I38" t="n">
-        <v>190.8814659761526</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>117.942570736623</v>
+        <v>117.9425707366228</v>
       </c>
       <c r="S38" t="n">
         <v>197.4382544600136</v>
@@ -30277,19 +30277,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30311,16 +30311,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744555</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30359,13 +30359,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>112.0819232965944</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>113.6288270472218</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30399,10 +30399,10 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I40" t="n">
-        <v>148.594350323536</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J40" t="n">
-        <v>77.24065501293987</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,25 +30423,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.07142543885089</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R40" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8800207032515</v>
+        <v>39.04804052131388</v>
       </c>
       <c r="T40" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U40" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V40" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W40" t="n">
-        <v>236.7532148486029</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,34 +30478,34 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I41" t="n">
+        <v>190.8814659761525</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>91.52819823739458</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>220.8709720780061</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>132.8285146721519</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>31.63857880477428</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>117.942570736623</v>
       </c>
       <c r="S41" t="n">
         <v>197.4382544600136</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>70.02829580830337</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,25 +30584,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.27374157744555</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>64.11216715549034</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30636,10 +30636,10 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I43" t="n">
-        <v>148.594350323536</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J43" t="n">
-        <v>77.24065501293987</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,19 +30660,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.07142543885089</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R43" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S43" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T43" t="n">
-        <v>98.46147990230901</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U43" t="n">
-        <v>220.8709720780061</v>
+        <v>98.46147990230804</v>
       </c>
       <c r="V43" t="n">
         <v>220.8709720780061</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="C44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="D44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="E44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="F44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="G44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="H44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="I44" t="n">
-        <v>220.8709720780061</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>194.4565995787777</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.4670934769281</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>117.9425707366231</v>
+        <v>117.9425707366228</v>
       </c>
       <c r="S44" t="n">
-        <v>197.4382544600137</v>
+        <v>197.4382544600136</v>
       </c>
       <c r="T44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="U44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="V44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="W44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="X44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
-        <v>72.56450193091536</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.27374157744561</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>220.8709720780061</v>
+        <v>1.516011601902449</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30873,10 +30873,10 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I46" t="n">
-        <v>148.594350323536</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J46" t="n">
-        <v>21.90258827609436</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,28 +30897,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R46" t="n">
-        <v>167.0423658965134</v>
+        <v>167.0423658965133</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="U46" t="n">
-        <v>220.8709720780061</v>
+        <v>98.46147990230773</v>
       </c>
       <c r="V46" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="W46" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="X46" t="n">
-        <v>220.8709720780061</v>
+        <v>220.8709720780062</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5082529951171345</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H35" t="n">
-        <v>5.205145986243354</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I35" t="n">
-        <v>19.59442359425335</v>
+        <v>19.59442359425346</v>
       </c>
       <c r="J35" t="n">
-        <v>43.13733764432293</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K35" t="n">
-        <v>64.65168692763125</v>
+        <v>64.65168692763162</v>
       </c>
       <c r="L35" t="n">
-        <v>80.20613452694727</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M35" t="n">
-        <v>89.2447787288616</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N35" t="n">
-        <v>90.68885255123817</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O35" t="n">
-        <v>85.63491183104216</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P35" t="n">
-        <v>73.08741601408789</v>
+        <v>73.0874160140883</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.88560562645549</v>
+        <v>54.88560562645581</v>
       </c>
       <c r="R35" t="n">
-        <v>31.92654720452673</v>
+        <v>31.92654720452691</v>
       </c>
       <c r="S35" t="n">
-        <v>11.58181512623171</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T35" t="n">
-        <v>2.224877486125257</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04066023960937075</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.27193932658555</v>
+        <v>0.2719393265855516</v>
       </c>
       <c r="H36" t="n">
-        <v>2.62636139097097</v>
+        <v>2.626361390970986</v>
       </c>
       <c r="I36" t="n">
-        <v>9.362823305686703</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J36" t="n">
-        <v>25.69230278061112</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K36" t="n">
-        <v>43.91223766184297</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L36" t="n">
-        <v>59.04542264305989</v>
+        <v>59.04542264306023</v>
       </c>
       <c r="M36" t="n">
-        <v>68.90322323178607</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N36" t="n">
-        <v>70.72688652279182</v>
+        <v>70.72688652279221</v>
       </c>
       <c r="O36" t="n">
-        <v>64.70128354950145</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P36" t="n">
-        <v>51.92848421439333</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.71281649537653</v>
+        <v>34.71281649537673</v>
       </c>
       <c r="R36" t="n">
-        <v>16.88409257519758</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S36" t="n">
-        <v>5.051153719692121</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T36" t="n">
-        <v>1.096106320754914</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01789074517010198</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2279847963752885</v>
+        <v>0.2279847963752898</v>
       </c>
       <c r="H37" t="n">
-        <v>2.026992098682112</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I37" t="n">
-        <v>6.856124603722316</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J37" t="n">
-        <v>16.1185251037329</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K37" t="n">
-        <v>26.48768816069261</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L37" t="n">
-        <v>33.89512145383154</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M37" t="n">
-        <v>35.73765312635545</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N37" t="n">
-        <v>34.88789161259304</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O37" t="n">
-        <v>32.22461467311807</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P37" t="n">
-        <v>27.57372482706216</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.09061781284348</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R37" t="n">
-        <v>10.25102548065615</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S37" t="n">
-        <v>3.973153224103891</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T37" t="n">
-        <v>0.974116857239869</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01243553434774303</v>
+        <v>0.0124355343477431</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5082529951171345</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H38" t="n">
-        <v>5.205145986243354</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I38" t="n">
-        <v>19.59442359425335</v>
+        <v>19.59442359425346</v>
       </c>
       <c r="J38" t="n">
-        <v>43.13733764432293</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K38" t="n">
-        <v>64.65168692763125</v>
+        <v>64.65168692763162</v>
       </c>
       <c r="L38" t="n">
-        <v>80.20613452694727</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M38" t="n">
-        <v>89.2447787288616</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N38" t="n">
-        <v>90.68885255123817</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O38" t="n">
-        <v>85.63491183104216</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P38" t="n">
-        <v>73.08741601408789</v>
+        <v>73.0874160140883</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.88560562645549</v>
+        <v>54.88560562645581</v>
       </c>
       <c r="R38" t="n">
-        <v>31.92654720452673</v>
+        <v>31.92654720452691</v>
       </c>
       <c r="S38" t="n">
-        <v>11.58181512623171</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T38" t="n">
-        <v>2.224877486125257</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04066023960937075</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.27193932658555</v>
+        <v>0.2719393265855516</v>
       </c>
       <c r="H39" t="n">
-        <v>2.62636139097097</v>
+        <v>2.626361390970986</v>
       </c>
       <c r="I39" t="n">
-        <v>9.362823305686703</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J39" t="n">
-        <v>25.69230278061112</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K39" t="n">
-        <v>43.91223766184297</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L39" t="n">
-        <v>59.04542264305989</v>
+        <v>59.04542264306023</v>
       </c>
       <c r="M39" t="n">
-        <v>68.90322323178607</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N39" t="n">
-        <v>70.72688652279182</v>
+        <v>70.72688652279221</v>
       </c>
       <c r="O39" t="n">
-        <v>64.70128354950145</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P39" t="n">
-        <v>51.92848421439333</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.71281649537653</v>
+        <v>34.71281649537673</v>
       </c>
       <c r="R39" t="n">
-        <v>16.88409257519758</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S39" t="n">
-        <v>5.051153719692121</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T39" t="n">
-        <v>1.096106320754914</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01789074517010198</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2279847963752885</v>
+        <v>0.2279847963752898</v>
       </c>
       <c r="H40" t="n">
-        <v>2.026992098682112</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I40" t="n">
-        <v>6.856124603722316</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J40" t="n">
-        <v>16.1185251037329</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K40" t="n">
-        <v>26.48768816069261</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L40" t="n">
-        <v>33.89512145383154</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M40" t="n">
-        <v>35.73765312635545</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N40" t="n">
-        <v>34.88789161259304</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O40" t="n">
-        <v>32.22461467311807</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P40" t="n">
-        <v>27.57372482706216</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.09061781284348</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R40" t="n">
-        <v>10.25102548065615</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S40" t="n">
-        <v>3.973153224103891</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T40" t="n">
-        <v>0.974116857239869</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01243553434774303</v>
+        <v>0.0124355343477431</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5082529951171345</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H41" t="n">
-        <v>5.205145986243354</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I41" t="n">
-        <v>19.59442359425335</v>
+        <v>19.59442359425346</v>
       </c>
       <c r="J41" t="n">
-        <v>43.13733764432293</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K41" t="n">
-        <v>64.65168692763125</v>
+        <v>64.65168692763162</v>
       </c>
       <c r="L41" t="n">
-        <v>80.20613452694727</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M41" t="n">
-        <v>89.2447787288616</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N41" t="n">
-        <v>90.68885255123817</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O41" t="n">
-        <v>85.63491183104216</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P41" t="n">
-        <v>73.08741601408789</v>
+        <v>73.0874160140883</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.88560562645549</v>
+        <v>54.88560562645581</v>
       </c>
       <c r="R41" t="n">
-        <v>31.92654720452673</v>
+        <v>31.92654720452691</v>
       </c>
       <c r="S41" t="n">
-        <v>11.58181512623171</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T41" t="n">
-        <v>2.224877486125257</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04066023960937075</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.27193932658555</v>
+        <v>0.2719393265855516</v>
       </c>
       <c r="H42" t="n">
-        <v>2.62636139097097</v>
+        <v>2.626361390970986</v>
       </c>
       <c r="I42" t="n">
-        <v>9.362823305686703</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J42" t="n">
-        <v>25.69230278061112</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K42" t="n">
-        <v>43.91223766184297</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L42" t="n">
-        <v>59.04542264305989</v>
+        <v>59.04542264306023</v>
       </c>
       <c r="M42" t="n">
-        <v>68.90322323178607</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N42" t="n">
-        <v>70.72688652279182</v>
+        <v>70.72688652279221</v>
       </c>
       <c r="O42" t="n">
-        <v>64.70128354950145</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P42" t="n">
-        <v>51.92848421439333</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.71281649537653</v>
+        <v>34.71281649537673</v>
       </c>
       <c r="R42" t="n">
-        <v>16.88409257519758</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S42" t="n">
-        <v>5.051153719692121</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T42" t="n">
-        <v>1.096106320754914</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01789074517010198</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2279847963752885</v>
+        <v>0.2279847963752898</v>
       </c>
       <c r="H43" t="n">
-        <v>2.026992098682112</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I43" t="n">
-        <v>6.856124603722316</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J43" t="n">
-        <v>16.1185251037329</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K43" t="n">
-        <v>26.48768816069261</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L43" t="n">
-        <v>33.89512145383154</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M43" t="n">
-        <v>35.73765312635545</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N43" t="n">
-        <v>34.88789161259304</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O43" t="n">
-        <v>32.22461467311807</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P43" t="n">
-        <v>27.57372482706216</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.09061781284348</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R43" t="n">
-        <v>10.25102548065615</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S43" t="n">
-        <v>3.973153224103891</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T43" t="n">
-        <v>0.974116857239869</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01243553434774303</v>
+        <v>0.0124355343477431</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5082529951171328</v>
+        <v>0.5082529951171373</v>
       </c>
       <c r="H44" t="n">
-        <v>5.205145986243338</v>
+        <v>5.205145986243384</v>
       </c>
       <c r="I44" t="n">
-        <v>19.59442359425328</v>
+        <v>19.59442359425346</v>
       </c>
       <c r="J44" t="n">
-        <v>43.13733764432279</v>
+        <v>43.13733764432317</v>
       </c>
       <c r="K44" t="n">
-        <v>64.65168692763103</v>
+        <v>64.65168692763162</v>
       </c>
       <c r="L44" t="n">
-        <v>80.20613452694701</v>
+        <v>80.20613452694772</v>
       </c>
       <c r="M44" t="n">
-        <v>89.24477872886132</v>
+        <v>89.2447787288621</v>
       </c>
       <c r="N44" t="n">
-        <v>90.68885255123787</v>
+        <v>90.68885255123868</v>
       </c>
       <c r="O44" t="n">
-        <v>85.63491183104188</v>
+        <v>85.63491183104264</v>
       </c>
       <c r="P44" t="n">
-        <v>73.08741601408765</v>
+        <v>73.0874160140883</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.88560562645532</v>
+        <v>54.88560562645581</v>
       </c>
       <c r="R44" t="n">
-        <v>31.92654720452662</v>
+        <v>31.92654720452691</v>
       </c>
       <c r="S44" t="n">
-        <v>11.58181512623168</v>
+        <v>11.58181512623178</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22487748612525</v>
+        <v>2.22487748612527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04066023960937062</v>
+        <v>0.04066023960937098</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2719393265855491</v>
+        <v>0.2719393265855516</v>
       </c>
       <c r="H45" t="n">
-        <v>2.626361390970962</v>
+        <v>2.626361390970986</v>
       </c>
       <c r="I45" t="n">
-        <v>9.362823305686671</v>
+        <v>9.362823305686755</v>
       </c>
       <c r="J45" t="n">
-        <v>25.69230278061103</v>
+        <v>25.69230278061126</v>
       </c>
       <c r="K45" t="n">
-        <v>43.91223766184282</v>
+        <v>43.91223766184321</v>
       </c>
       <c r="L45" t="n">
-        <v>59.0454226430597</v>
+        <v>59.04542264306023</v>
       </c>
       <c r="M45" t="n">
-        <v>68.90322323178584</v>
+        <v>68.90322323178646</v>
       </c>
       <c r="N45" t="n">
-        <v>70.72688652279157</v>
+        <v>70.72688652279221</v>
       </c>
       <c r="O45" t="n">
-        <v>64.70128354950126</v>
+        <v>64.70128354950182</v>
       </c>
       <c r="P45" t="n">
-        <v>51.92848421439316</v>
+        <v>51.92848421439362</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.71281649537642</v>
+        <v>34.71281649537673</v>
       </c>
       <c r="R45" t="n">
-        <v>16.88409257519752</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S45" t="n">
-        <v>5.051153719692105</v>
+        <v>5.05115371969215</v>
       </c>
       <c r="T45" t="n">
-        <v>1.09610632075491</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01789074517010193</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2279847963752878</v>
+        <v>0.2279847963752898</v>
       </c>
       <c r="H46" t="n">
-        <v>2.026992098682106</v>
+        <v>2.026992098682124</v>
       </c>
       <c r="I46" t="n">
-        <v>6.856124603722294</v>
+        <v>6.856124603722354</v>
       </c>
       <c r="J46" t="n">
-        <v>16.11852510373285</v>
+        <v>16.11852510373299</v>
       </c>
       <c r="K46" t="n">
-        <v>26.48768816069252</v>
+        <v>26.48768816069276</v>
       </c>
       <c r="L46" t="n">
-        <v>33.89512145383143</v>
+        <v>33.89512145383173</v>
       </c>
       <c r="M46" t="n">
-        <v>35.73765312635534</v>
+        <v>35.73765312635565</v>
       </c>
       <c r="N46" t="n">
-        <v>34.88789161259293</v>
+        <v>34.88789161259324</v>
       </c>
       <c r="O46" t="n">
-        <v>32.22461467311796</v>
+        <v>32.22461467311825</v>
       </c>
       <c r="P46" t="n">
-        <v>27.57372482706207</v>
+        <v>27.57372482706231</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.09061781284342</v>
+        <v>19.09061781284359</v>
       </c>
       <c r="R46" t="n">
-        <v>10.25102548065612</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S46" t="n">
-        <v>3.973153224103878</v>
+        <v>3.973153224103913</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9741168572398659</v>
+        <v>0.9741168572398745</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01243553434774299</v>
+        <v>0.0124355343477431</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M11" t="n">
-        <v>308.4120789944218</v>
+        <v>130.2452247596562</v>
       </c>
       <c r="N11" t="n">
         <v>298.622713366632</v>
       </c>
       <c r="O11" t="n">
-        <v>58.17002743733564</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P11" t="n">
         <v>163.6531284303014</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L12" t="n">
         <v>291.3313881666452</v>
@@ -35498,16 +35498,16 @@
         <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3447945501591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>133.311262784575</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P12" t="n">
-        <v>236.4168454400005</v>
+        <v>90.81546709332767</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.58728140935298</v>
+        <v>65.58728140935287</v>
       </c>
       <c r="K13" t="n">
-        <v>147.0461327571027</v>
+        <v>12.36800492080723</v>
       </c>
       <c r="L13" t="n">
         <v>61.48514671414787</v>
       </c>
       <c r="M13" t="n">
-        <v>218.149466510489</v>
+        <v>218.1494665104889</v>
       </c>
       <c r="N13" t="n">
-        <v>87.16987257781682</v>
+        <v>221.8480004141145</v>
       </c>
       <c r="O13" t="n">
-        <v>199.6376790094507</v>
+        <v>56.80974258715793</v>
       </c>
       <c r="P13" t="n">
-        <v>24.8522840919558</v>
+        <v>167.6802205142484</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.75651098344197</v>
+        <v>75.75651098344186</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.18804828971066</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>168.7072484538158</v>
       </c>
       <c r="L14" t="n">
-        <v>83.93407987264524</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M14" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N14" t="n">
-        <v>298.622713366632</v>
+        <v>151.643907421577</v>
       </c>
       <c r="O14" t="n">
         <v>236.3368816721013</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.9457114543534</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>170.5360357000628</v>
       </c>
       <c r="L15" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>296.5517463486904</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O15" t="n">
-        <v>315.9673583817869</v>
+        <v>254.1066152511576</v>
       </c>
       <c r="P15" t="n">
         <v>236.4168454400005</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935298</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.218196334809907</v>
+        <v>147.0461327571026</v>
       </c>
       <c r="L16" t="n">
-        <v>204.3130831364406</v>
+        <v>204.3130831364405</v>
       </c>
       <c r="M16" t="n">
-        <v>218.149466510489</v>
+        <v>81.98719464469566</v>
       </c>
       <c r="N16" t="n">
-        <v>87.16987257781682</v>
+        <v>221.8480004141145</v>
       </c>
       <c r="O16" t="n">
         <v>56.80974258715793</v>
       </c>
       <c r="P16" t="n">
-        <v>167.6802205142486</v>
+        <v>167.6802205142484</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.75651098344197</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>31.18804828971066</v>
       </c>
       <c r="K17" t="n">
-        <v>35.43530063096105</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L17" t="n">
         <v>262.1009341074109</v>
@@ -35893,7 +35893,7 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
-        <v>298.622713366632</v>
+        <v>120.4558591318663</v>
       </c>
       <c r="O17" t="n">
         <v>236.3368816721013</v>
@@ -35902,7 +35902,7 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.9457114543534</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>170.5360357000628</v>
       </c>
       <c r="L18" t="n">
-        <v>145.7300098199723</v>
+        <v>275.4840514195298</v>
       </c>
       <c r="M18" t="n">
         <v>337.3447945501591</v>
@@ -35981,7 +35981,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M20" t="n">
-        <v>130.2452247596562</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N20" t="n">
-        <v>298.622713366632</v>
+        <v>120.4558591318663</v>
       </c>
       <c r="O20" t="n">
         <v>236.3368816721013</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.9457114543534</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>108.3655513302217</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>291.3313881666452</v>
@@ -36212,10 +36212,10 @@
         <v>337.3447945501591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P21" t="n">
-        <v>236.4168454400005</v>
+        <v>53.76074984278878</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>31.18804828971066</v>
       </c>
       <c r="K23" t="n">
-        <v>168.7072484538158</v>
+        <v>154.1935226493521</v>
       </c>
       <c r="L23" t="n">
         <v>262.1009341074109</v>
@@ -36367,13 +36367,13 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N23" t="n">
-        <v>120.4558591318674</v>
+        <v>298.622713366632</v>
       </c>
       <c r="O23" t="n">
         <v>236.3368816721013</v>
       </c>
       <c r="P23" t="n">
-        <v>163.6531284303014</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>44.894906411911</v>
@@ -36440,19 +36440,19 @@
         <v>170.5360357000628</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>195.3116914894678</v>
+        <v>337.3447945501592</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501594</v>
+        <v>337.3447945501592</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P24" t="n">
-        <v>236.4168454400005</v>
+        <v>69.74777216416736</v>
       </c>
       <c r="Q24" t="n">
         <v>104.8083301452043</v>
@@ -36598,25 +36598,25 @@
         <v>318.4003660218493</v>
       </c>
       <c r="L26" t="n">
-        <v>411.7940516754444</v>
+        <v>411.7940516754445</v>
       </c>
       <c r="M26" t="n">
         <v>458.1051965624554</v>
       </c>
       <c r="N26" t="n">
-        <v>448.3158309346654</v>
+        <v>448.3158309346655</v>
       </c>
       <c r="O26" t="n">
         <v>386.0299992401348</v>
       </c>
       <c r="P26" t="n">
-        <v>313.3462459983349</v>
+        <v>313.346245998335</v>
       </c>
       <c r="Q26" t="n">
         <v>194.5880239799445</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141073</v>
+        <v>31.75054683141076</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.259154921464358</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102255</v>
+        <v>4.272069545102283</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.45246255509375</v>
       </c>
       <c r="K28" t="n">
-        <v>4.218196334809907</v>
+        <v>153.9113139028434</v>
       </c>
       <c r="L28" t="n">
-        <v>61.48514671414787</v>
+        <v>75.30252917329705</v>
       </c>
       <c r="M28" t="n">
-        <v>225.0146476562297</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N28" t="n">
-        <v>228.7131815598553</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O28" t="n">
-        <v>206.5028601551914</v>
+        <v>206.5028601551915</v>
       </c>
       <c r="P28" t="n">
-        <v>47.30985858881252</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.62169212918273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.8811658577442</v>
+        <v>180.8811658577441</v>
       </c>
       <c r="K29" t="n">
         <v>318.4003660218493</v>
@@ -36838,22 +36838,22 @@
         <v>411.7940516754444</v>
       </c>
       <c r="M29" t="n">
-        <v>458.105196562455</v>
+        <v>458.1051965624553</v>
       </c>
       <c r="N29" t="n">
         <v>448.3158309346654</v>
       </c>
       <c r="O29" t="n">
-        <v>386.0299992401348</v>
+        <v>386.0299992401352</v>
       </c>
       <c r="P29" t="n">
-        <v>313.3462459983349</v>
+        <v>313.3462459983348</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.5880239799445</v>
+        <v>194.5880239799444</v>
       </c>
       <c r="R29" t="n">
-        <v>31.75054683141073</v>
+        <v>31.75054683141067</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.259154921464273</v>
       </c>
       <c r="F31" t="n">
-        <v>4.272069545102255</v>
+        <v>4.272069545102198</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.45246255509372</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>21.29473371542375</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L31" t="n">
-        <v>211.1782642821814</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M31" t="n">
-        <v>75.32153008819624</v>
+        <v>161.5913751024404</v>
       </c>
       <c r="N31" t="n">
         <v>228.7131815598553</v>
@@ -37005,10 +37005,10 @@
         <v>56.80974258715793</v>
       </c>
       <c r="P31" t="n">
-        <v>24.8522840919558</v>
+        <v>174.5454016599892</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.6216921291827</v>
+        <v>82.62169212918265</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>1.077644549821088</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.259154921464273</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.272069545102198</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.45246255509366</v>
+        <v>18.12077502557227</v>
       </c>
       <c r="K34" t="n">
         <v>4.218196334809907</v>
       </c>
       <c r="L34" t="n">
-        <v>61.48514671414787</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M34" t="n">
         <v>75.32153008819624</v>
       </c>
       <c r="N34" t="n">
-        <v>99.29102636771768</v>
+        <v>228.7131815598553</v>
       </c>
       <c r="O34" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5454016599892</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62169212918265</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>31.18804828971042</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K35" t="n">
-        <v>168.7072484538155</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L35" t="n">
-        <v>262.1009341074105</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M35" t="n">
-        <v>308.4120789944213</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N35" t="n">
-        <v>298.6227133666314</v>
+        <v>298.622713366632</v>
       </c>
       <c r="O35" t="n">
-        <v>236.3368816721008</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P35" t="n">
-        <v>163.653128430301</v>
+        <v>163.6531284303024</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.89490641191069</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.94571145435326</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>170.5360357000626</v>
+        <v>92.04137497919035</v>
       </c>
       <c r="L36" t="n">
-        <v>291.3313881666449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>382.341015390061</v>
+        <v>382.3410153900619</v>
       </c>
       <c r="N36" t="n">
-        <v>382.341015390061</v>
+        <v>382.3410153900619</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P36" t="n">
-        <v>236.4168454400003</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.00392818511924</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.218196334809758</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L37" t="n">
-        <v>61.48514671414768</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M37" t="n">
-        <v>75.32153008819604</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N37" t="n">
-        <v>79.02006399182164</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O37" t="n">
-        <v>56.80974258715774</v>
+        <v>56.80974258715793</v>
       </c>
       <c r="P37" t="n">
-        <v>24.85228409195565</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31.18804828971042</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K38" t="n">
-        <v>168.7072484538155</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L38" t="n">
-        <v>262.1009341074105</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M38" t="n">
-        <v>308.4120789944213</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N38" t="n">
-        <v>298.6227133666314</v>
+        <v>298.622713366632</v>
       </c>
       <c r="O38" t="n">
-        <v>236.3368816721008</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P38" t="n">
-        <v>163.653128430301</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.89490641191069</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K39" t="n">
-        <v>170.5360357000626</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3313881666449</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M39" t="n">
-        <v>117.3232966477466</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="N39" t="n">
-        <v>382.3410153900609</v>
+        <v>92.37758519339427</v>
       </c>
       <c r="O39" t="n">
-        <v>315.9673583817865</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P39" t="n">
-        <v>236.4168454400003</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.218196334809758</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L40" t="n">
-        <v>61.48514671414768</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M40" t="n">
-        <v>75.32153008819604</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N40" t="n">
-        <v>79.02006399182164</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O40" t="n">
-        <v>56.80974258715774</v>
+        <v>56.80974258715793</v>
       </c>
       <c r="P40" t="n">
-        <v>24.85228409195565</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.98950610185354</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.18804828971042</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K41" t="n">
-        <v>168.7072484538155</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L41" t="n">
-        <v>262.1009341074105</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M41" t="n">
-        <v>308.4120789944213</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N41" t="n">
-        <v>431.4512280387833</v>
+        <v>298.622713366632</v>
       </c>
       <c r="O41" t="n">
-        <v>236.3368816721008</v>
+        <v>236.3368816721013</v>
       </c>
       <c r="P41" t="n">
-        <v>195.2917072350753</v>
+        <v>255.181326667696</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.89490641191069</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K42" t="n">
-        <v>170.5360357000626</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L42" t="n">
-        <v>291.3313881666449</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M42" t="n">
-        <v>392.4742530597676</v>
+        <v>392.474253059768</v>
       </c>
       <c r="N42" t="n">
-        <v>418.727548783012</v>
+        <v>171.8926169572615</v>
       </c>
       <c r="O42" t="n">
-        <v>198.886468155594</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P42" t="n">
-        <v>236.4168454400003</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.218196334809758</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L43" t="n">
-        <v>61.48514671414768</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M43" t="n">
-        <v>75.32153008819604</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N43" t="n">
-        <v>79.02006399182164</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O43" t="n">
-        <v>56.80974258715774</v>
+        <v>56.80974258715793</v>
       </c>
       <c r="P43" t="n">
-        <v>24.85228409195565</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.98950610185348</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.18804828971027</v>
+        <v>31.18804828971066</v>
       </c>
       <c r="K44" t="n">
-        <v>168.7072484538152</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L44" t="n">
-        <v>262.1009341074102</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M44" t="n">
-        <v>308.4120789944211</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N44" t="n">
-        <v>298.6227133666311</v>
+        <v>298.622713366632</v>
       </c>
       <c r="O44" t="n">
-        <v>236.3368816721005</v>
+        <v>430.793481250879</v>
       </c>
       <c r="P44" t="n">
-        <v>163.6531284303007</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.3619998888386</v>
+        <v>44.894906411911</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.94571145435318</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L45" t="n">
-        <v>291.3313881666447</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M45" t="n">
-        <v>392.4742530597674</v>
+        <v>392.474253059768</v>
       </c>
       <c r="N45" t="n">
-        <v>418.7275487830118</v>
+        <v>418.7275487830124</v>
       </c>
       <c r="O45" t="n">
-        <v>239.6684622561004</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P45" t="n">
-        <v>236.4168454400001</v>
+        <v>14.52762506860312</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.808330145204</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.218196334809672</v>
+        <v>4.218196334809907</v>
       </c>
       <c r="L46" t="n">
-        <v>61.48514671414757</v>
+        <v>61.48514671414787</v>
       </c>
       <c r="M46" t="n">
-        <v>75.32153008819593</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N46" t="n">
-        <v>79.02006399182153</v>
+        <v>79.02006399182183</v>
       </c>
       <c r="O46" t="n">
-        <v>56.80974258715764</v>
+        <v>56.80974258715793</v>
       </c>
       <c r="P46" t="n">
-        <v>24.85228409195556</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
